--- a/01_基本設計書/20200220リリース/SC-K16A_成形実績参照詳細.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16A_成形実績参照詳細.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF119909-4295-4A98-A518-43E8729A3488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A8F0F-828A-4F6C-9767-3A26993EA043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3088,6 +3088,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3115,103 +3200,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3230,10 +3218,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5193,1770 +5193,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="140"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="140"/>
-      <c r="AV1" s="140"/>
-      <c r="AW1" s="140"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="172"/>
+      <c r="AL2" s="172"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="172"/>
+      <c r="AO2" s="172"/>
+      <c r="AP2" s="172"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="172"/>
+      <c r="AS2" s="172"/>
+      <c r="AT2" s="172"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="172"/>
+      <c r="AW2" s="172"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143" t="s">
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="143" t="s">
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="142" t="s">
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142" t="s">
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142" t="s">
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142" t="s">
+      <c r="AO3" s="173"/>
+      <c r="AP3" s="173"/>
+      <c r="AQ3" s="173"/>
+      <c r="AR3" s="173"/>
+      <c r="AS3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="142"/>
-      <c r="AW3" s="142"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="173"/>
+      <c r="AW3" s="173"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="142"/>
-      <c r="AU4" s="142"/>
-      <c r="AV4" s="142"/>
-      <c r="AW4" s="142"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="173"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="173"/>
+      <c r="AM4" s="173"/>
+      <c r="AN4" s="173"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="173"/>
+      <c r="AT4" s="173"/>
+      <c r="AU4" s="173"/>
+      <c r="AV4" s="173"/>
+      <c r="AW4" s="173"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="150">
+      <c r="B5" s="165">
         <v>1</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151">
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="146">
         <v>43738</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152" t="s">
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="152" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="149" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="158" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="149" t="s">
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="AO5" s="149"/>
-      <c r="AP5" s="149"/>
-      <c r="AQ5" s="149"/>
-      <c r="AR5" s="149"/>
-      <c r="AS5" s="149"/>
-      <c r="AT5" s="149"/>
-      <c r="AU5" s="149"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="149"/>
+      <c r="AO5" s="153"/>
+      <c r="AP5" s="153"/>
+      <c r="AQ5" s="153"/>
+      <c r="AR5" s="153"/>
+      <c r="AS5" s="153"/>
+      <c r="AT5" s="153"/>
+      <c r="AU5" s="153"/>
+      <c r="AV5" s="153"/>
+      <c r="AW5" s="153"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="158"/>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="158"/>
-      <c r="AN6" s="149"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="164"/>
+      <c r="AG6" s="164"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="164"/>
+      <c r="AL6" s="164"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="153"/>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="153"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="153"/>
+      <c r="AW6" s="153"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
-      <c r="AK7" s="158"/>
-      <c r="AL7" s="158"/>
-      <c r="AM7" s="158"/>
-      <c r="AN7" s="149"/>
-      <c r="AO7" s="149"/>
-      <c r="AP7" s="149"/>
-      <c r="AQ7" s="149"/>
-      <c r="AR7" s="149"/>
-      <c r="AS7" s="149"/>
-      <c r="AT7" s="149"/>
-      <c r="AU7" s="149"/>
-      <c r="AV7" s="149"/>
-      <c r="AW7" s="149"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="164"/>
+      <c r="AN7" s="153"/>
+      <c r="AO7" s="153"/>
+      <c r="AP7" s="153"/>
+      <c r="AQ7" s="153"/>
+      <c r="AR7" s="153"/>
+      <c r="AS7" s="153"/>
+      <c r="AT7" s="153"/>
+      <c r="AU7" s="153"/>
+      <c r="AV7" s="153"/>
+      <c r="AW7" s="153"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="149"/>
-      <c r="AO8" s="149"/>
-      <c r="AP8" s="149"/>
-      <c r="AQ8" s="149"/>
-      <c r="AR8" s="149"/>
-      <c r="AS8" s="149"/>
-      <c r="AT8" s="149"/>
-      <c r="AU8" s="149"/>
-      <c r="AV8" s="149"/>
-      <c r="AW8" s="149"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="164"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="164"/>
+      <c r="AL8" s="164"/>
+      <c r="AM8" s="164"/>
+      <c r="AN8" s="153"/>
+      <c r="AO8" s="153"/>
+      <c r="AP8" s="153"/>
+      <c r="AQ8" s="153"/>
+      <c r="AR8" s="153"/>
+      <c r="AS8" s="153"/>
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="153"/>
+      <c r="AV8" s="153"/>
+      <c r="AW8" s="153"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
-      <c r="AJ9" s="158"/>
-      <c r="AK9" s="158"/>
-      <c r="AL9" s="158"/>
-      <c r="AM9" s="158"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="149"/>
-      <c r="AQ9" s="149"/>
-      <c r="AR9" s="149"/>
-      <c r="AS9" s="149"/>
-      <c r="AT9" s="149"/>
-      <c r="AU9" s="149"/>
-      <c r="AV9" s="149"/>
-      <c r="AW9" s="149"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="164"/>
+      <c r="AH9" s="164"/>
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="164"/>
+      <c r="AK9" s="164"/>
+      <c r="AL9" s="164"/>
+      <c r="AM9" s="164"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
+      <c r="AQ9" s="153"/>
+      <c r="AR9" s="153"/>
+      <c r="AS9" s="153"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="153"/>
+      <c r="AV9" s="153"/>
+      <c r="AW9" s="153"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="149"/>
-      <c r="AO10" s="149"/>
-      <c r="AP10" s="149"/>
-      <c r="AQ10" s="149"/>
-      <c r="AR10" s="149"/>
-      <c r="AS10" s="149"/>
-      <c r="AT10" s="149"/>
-      <c r="AU10" s="149"/>
-      <c r="AV10" s="149"/>
-      <c r="AW10" s="149"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="164"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="164"/>
+      <c r="AL10" s="164"/>
+      <c r="AM10" s="164"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="153"/>
+      <c r="AS10" s="153"/>
+      <c r="AT10" s="153"/>
+      <c r="AU10" s="153"/>
+      <c r="AV10" s="153"/>
+      <c r="AW10" s="153"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="171"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="171"/>
-      <c r="AD11" s="171"/>
-      <c r="AE11" s="171"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="171"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="171"/>
-      <c r="AL11" s="171"/>
-      <c r="AM11" s="172"/>
-      <c r="AN11" s="149"/>
-      <c r="AO11" s="149"/>
-      <c r="AP11" s="149"/>
-      <c r="AQ11" s="149"/>
-      <c r="AR11" s="149"/>
-      <c r="AS11" s="149"/>
-      <c r="AT11" s="149"/>
-      <c r="AU11" s="149"/>
-      <c r="AV11" s="149"/>
-      <c r="AW11" s="149"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="166"/>
+      <c r="AI11" s="166"/>
+      <c r="AJ11" s="166"/>
+      <c r="AK11" s="166"/>
+      <c r="AL11" s="166"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="153"/>
+      <c r="AP11" s="153"/>
+      <c r="AQ11" s="153"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="153"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="153"/>
+      <c r="AV11" s="153"/>
+      <c r="AW11" s="153"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="166"/>
-      <c r="AF12" s="166"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="167"/>
-      <c r="AN12" s="168"/>
-      <c r="AO12" s="169"/>
-      <c r="AP12" s="169"/>
-      <c r="AQ12" s="169"/>
-      <c r="AR12" s="170"/>
-      <c r="AS12" s="168"/>
-      <c r="AT12" s="169"/>
-      <c r="AU12" s="169"/>
-      <c r="AV12" s="169"/>
-      <c r="AW12" s="170"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="155"/>
+      <c r="AG12" s="155"/>
+      <c r="AH12" s="155"/>
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="155"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="155"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="141"/>
+      <c r="AP12" s="141"/>
+      <c r="AQ12" s="141"/>
+      <c r="AR12" s="142"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AV12" s="141"/>
+      <c r="AW12" s="142"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="166"/>
-      <c r="AL13" s="166"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="168"/>
-      <c r="AO13" s="169"/>
-      <c r="AP13" s="169"/>
-      <c r="AQ13" s="169"/>
-      <c r="AR13" s="170"/>
-      <c r="AS13" s="168"/>
-      <c r="AT13" s="169"/>
-      <c r="AU13" s="169"/>
-      <c r="AV13" s="169"/>
-      <c r="AW13" s="170"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="155"/>
+      <c r="AG13" s="155"/>
+      <c r="AH13" s="155"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="155"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="142"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
+      <c r="AV13" s="141"/>
+      <c r="AW13" s="142"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="158"/>
-      <c r="AM14" s="158"/>
-      <c r="AN14" s="149"/>
-      <c r="AO14" s="149"/>
-      <c r="AP14" s="149"/>
-      <c r="AQ14" s="149"/>
-      <c r="AR14" s="149"/>
-      <c r="AS14" s="168"/>
-      <c r="AT14" s="169"/>
-      <c r="AU14" s="169"/>
-      <c r="AV14" s="169"/>
-      <c r="AW14" s="170"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="164"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="164"/>
+      <c r="AJ14" s="164"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="164"/>
+      <c r="AM14" s="164"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
+      <c r="AQ14" s="153"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="140"/>
+      <c r="AT14" s="141"/>
+      <c r="AU14" s="141"/>
+      <c r="AV14" s="141"/>
+      <c r="AW14" s="142"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="166"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="166"/>
-      <c r="AK15" s="166"/>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="167"/>
-      <c r="AN15" s="168"/>
-      <c r="AO15" s="169"/>
-      <c r="AP15" s="169"/>
-      <c r="AQ15" s="169"/>
-      <c r="AR15" s="170"/>
-      <c r="AS15" s="168"/>
-      <c r="AT15" s="169"/>
-      <c r="AU15" s="169"/>
-      <c r="AV15" s="169"/>
-      <c r="AW15" s="170"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="155"/>
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="155"/>
+      <c r="AK15" s="155"/>
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="140"/>
+      <c r="AO15" s="141"/>
+      <c r="AP15" s="141"/>
+      <c r="AQ15" s="141"/>
+      <c r="AR15" s="142"/>
+      <c r="AS15" s="140"/>
+      <c r="AT15" s="141"/>
+      <c r="AU15" s="141"/>
+      <c r="AV15" s="141"/>
+      <c r="AW15" s="142"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="166"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="166"/>
-      <c r="AL16" s="166"/>
-      <c r="AM16" s="167"/>
-      <c r="AN16" s="168"/>
-      <c r="AO16" s="169"/>
-      <c r="AP16" s="169"/>
-      <c r="AQ16" s="169"/>
-      <c r="AR16" s="170"/>
-      <c r="AS16" s="168"/>
-      <c r="AT16" s="169"/>
-      <c r="AU16" s="169"/>
-      <c r="AV16" s="169"/>
-      <c r="AW16" s="170"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="155"/>
+      <c r="AG16" s="155"/>
+      <c r="AH16" s="155"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="155"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="155"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="140"/>
+      <c r="AO16" s="141"/>
+      <c r="AP16" s="141"/>
+      <c r="AQ16" s="141"/>
+      <c r="AR16" s="142"/>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="141"/>
+      <c r="AU16" s="141"/>
+      <c r="AV16" s="141"/>
+      <c r="AW16" s="142"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="176"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="166"/>
-      <c r="AF17" s="166"/>
-      <c r="AG17" s="166"/>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="166"/>
-      <c r="AJ17" s="166"/>
-      <c r="AK17" s="166"/>
-      <c r="AL17" s="166"/>
-      <c r="AM17" s="167"/>
-      <c r="AN17" s="168"/>
-      <c r="AO17" s="169"/>
-      <c r="AP17" s="169"/>
-      <c r="AQ17" s="169"/>
-      <c r="AR17" s="170"/>
-      <c r="AS17" s="168"/>
-      <c r="AT17" s="169"/>
-      <c r="AU17" s="169"/>
-      <c r="AV17" s="169"/>
-      <c r="AW17" s="170"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="155"/>
+      <c r="AG17" s="155"/>
+      <c r="AH17" s="155"/>
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="155"/>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="155"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="140"/>
+      <c r="AO17" s="141"/>
+      <c r="AP17" s="141"/>
+      <c r="AQ17" s="141"/>
+      <c r="AR17" s="142"/>
+      <c r="AS17" s="140"/>
+      <c r="AT17" s="141"/>
+      <c r="AU17" s="141"/>
+      <c r="AV17" s="141"/>
+      <c r="AW17" s="142"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="166"/>
-      <c r="AF18" s="166"/>
-      <c r="AG18" s="166"/>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="166"/>
-      <c r="AJ18" s="166"/>
-      <c r="AK18" s="166"/>
-      <c r="AL18" s="166"/>
-      <c r="AM18" s="167"/>
-      <c r="AN18" s="168"/>
-      <c r="AO18" s="169"/>
-      <c r="AP18" s="169"/>
-      <c r="AQ18" s="169"/>
-      <c r="AR18" s="170"/>
-      <c r="AS18" s="168"/>
-      <c r="AT18" s="169"/>
-      <c r="AU18" s="169"/>
-      <c r="AV18" s="169"/>
-      <c r="AW18" s="170"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="155"/>
+      <c r="AG18" s="155"/>
+      <c r="AH18" s="155"/>
+      <c r="AI18" s="155"/>
+      <c r="AJ18" s="155"/>
+      <c r="AK18" s="155"/>
+      <c r="AL18" s="155"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="141"/>
+      <c r="AP18" s="141"/>
+      <c r="AQ18" s="141"/>
+      <c r="AR18" s="142"/>
+      <c r="AS18" s="140"/>
+      <c r="AT18" s="141"/>
+      <c r="AU18" s="141"/>
+      <c r="AV18" s="141"/>
+      <c r="AW18" s="142"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
-      <c r="AC19" s="166"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="166"/>
-      <c r="AF19" s="166"/>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="166"/>
-      <c r="AJ19" s="166"/>
-      <c r="AK19" s="166"/>
-      <c r="AL19" s="166"/>
-      <c r="AM19" s="167"/>
-      <c r="AN19" s="149"/>
-      <c r="AO19" s="149"/>
-      <c r="AP19" s="149"/>
-      <c r="AQ19" s="149"/>
-      <c r="AR19" s="149"/>
-      <c r="AS19" s="168"/>
-      <c r="AT19" s="169"/>
-      <c r="AU19" s="169"/>
-      <c r="AV19" s="169"/>
-      <c r="AW19" s="170"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="155"/>
+      <c r="AG19" s="155"/>
+      <c r="AH19" s="155"/>
+      <c r="AI19" s="155"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="155"/>
+      <c r="AL19" s="155"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="153"/>
+      <c r="AP19" s="153"/>
+      <c r="AQ19" s="153"/>
+      <c r="AR19" s="153"/>
+      <c r="AS19" s="140"/>
+      <c r="AT19" s="141"/>
+      <c r="AU19" s="141"/>
+      <c r="AV19" s="141"/>
+      <c r="AW19" s="142"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="169"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="166"/>
-      <c r="AF20" s="166"/>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="166"/>
-      <c r="AJ20" s="166"/>
-      <c r="AK20" s="166"/>
-      <c r="AL20" s="166"/>
-      <c r="AM20" s="167"/>
-      <c r="AN20" s="168"/>
-      <c r="AO20" s="169"/>
-      <c r="AP20" s="169"/>
-      <c r="AQ20" s="169"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="168"/>
-      <c r="AT20" s="169"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="169"/>
-      <c r="AW20" s="170"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="159"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="155"/>
+      <c r="AG20" s="155"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="155"/>
+      <c r="AL20" s="155"/>
+      <c r="AM20" s="156"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="141"/>
+      <c r="AP20" s="141"/>
+      <c r="AQ20" s="141"/>
+      <c r="AR20" s="142"/>
+      <c r="AS20" s="140"/>
+      <c r="AT20" s="141"/>
+      <c r="AU20" s="141"/>
+      <c r="AV20" s="141"/>
+      <c r="AW20" s="142"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="149"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="166"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="166"/>
-      <c r="AJ21" s="166"/>
-      <c r="AK21" s="166"/>
-      <c r="AL21" s="166"/>
-      <c r="AM21" s="167"/>
-      <c r="AN21" s="168"/>
-      <c r="AO21" s="169"/>
-      <c r="AP21" s="169"/>
-      <c r="AQ21" s="169"/>
-      <c r="AR21" s="170"/>
-      <c r="AS21" s="168"/>
-      <c r="AT21" s="169"/>
-      <c r="AU21" s="169"/>
-      <c r="AV21" s="169"/>
-      <c r="AW21" s="170"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="155"/>
+      <c r="AG21" s="155"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="155"/>
+      <c r="AK21" s="155"/>
+      <c r="AL21" s="155"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="140"/>
+      <c r="AO21" s="141"/>
+      <c r="AP21" s="141"/>
+      <c r="AQ21" s="141"/>
+      <c r="AR21" s="142"/>
+      <c r="AS21" s="140"/>
+      <c r="AT21" s="141"/>
+      <c r="AU21" s="141"/>
+      <c r="AV21" s="141"/>
+      <c r="AW21" s="142"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="166"/>
-      <c r="AJ22" s="166"/>
-      <c r="AK22" s="166"/>
-      <c r="AL22" s="166"/>
-      <c r="AM22" s="167"/>
-      <c r="AN22" s="168"/>
-      <c r="AO22" s="169"/>
-      <c r="AP22" s="169"/>
-      <c r="AQ22" s="169"/>
-      <c r="AR22" s="170"/>
-      <c r="AS22" s="168"/>
-      <c r="AT22" s="169"/>
-      <c r="AU22" s="169"/>
-      <c r="AV22" s="169"/>
-      <c r="AW22" s="170"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155"/>
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155"/>
+      <c r="AM22" s="156"/>
+      <c r="AN22" s="140"/>
+      <c r="AO22" s="141"/>
+      <c r="AP22" s="141"/>
+      <c r="AQ22" s="141"/>
+      <c r="AR22" s="142"/>
+      <c r="AS22" s="140"/>
+      <c r="AT22" s="141"/>
+      <c r="AU22" s="141"/>
+      <c r="AV22" s="141"/>
+      <c r="AW22" s="142"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="166"/>
-      <c r="AF23" s="166"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="166"/>
-      <c r="AI23" s="166"/>
-      <c r="AJ23" s="166"/>
-      <c r="AK23" s="166"/>
-      <c r="AL23" s="166"/>
-      <c r="AM23" s="167"/>
-      <c r="AN23" s="168"/>
-      <c r="AO23" s="169"/>
-      <c r="AP23" s="169"/>
-      <c r="AQ23" s="169"/>
-      <c r="AR23" s="170"/>
-      <c r="AS23" s="168"/>
-      <c r="AT23" s="169"/>
-      <c r="AU23" s="169"/>
-      <c r="AV23" s="169"/>
-      <c r="AW23" s="170"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="155"/>
+      <c r="AG23" s="155"/>
+      <c r="AH23" s="155"/>
+      <c r="AI23" s="155"/>
+      <c r="AJ23" s="155"/>
+      <c r="AK23" s="155"/>
+      <c r="AL23" s="155"/>
+      <c r="AM23" s="156"/>
+      <c r="AN23" s="140"/>
+      <c r="AO23" s="141"/>
+      <c r="AP23" s="141"/>
+      <c r="AQ23" s="141"/>
+      <c r="AR23" s="142"/>
+      <c r="AS23" s="140"/>
+      <c r="AT23" s="141"/>
+      <c r="AU23" s="141"/>
+      <c r="AV23" s="141"/>
+      <c r="AW23" s="142"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="166"/>
-      <c r="AF24" s="166"/>
-      <c r="AG24" s="166"/>
-      <c r="AH24" s="166"/>
-      <c r="AI24" s="166"/>
-      <c r="AJ24" s="166"/>
-      <c r="AK24" s="166"/>
-      <c r="AL24" s="166"/>
-      <c r="AM24" s="167"/>
-      <c r="AN24" s="168"/>
-      <c r="AO24" s="169"/>
-      <c r="AP24" s="169"/>
-      <c r="AQ24" s="169"/>
-      <c r="AR24" s="170"/>
-      <c r="AS24" s="168"/>
-      <c r="AT24" s="169"/>
-      <c r="AU24" s="169"/>
-      <c r="AV24" s="169"/>
-      <c r="AW24" s="170"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="159"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="155"/>
+      <c r="AG24" s="155"/>
+      <c r="AH24" s="155"/>
+      <c r="AI24" s="155"/>
+      <c r="AJ24" s="155"/>
+      <c r="AK24" s="155"/>
+      <c r="AL24" s="155"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="140"/>
+      <c r="AO24" s="141"/>
+      <c r="AP24" s="141"/>
+      <c r="AQ24" s="141"/>
+      <c r="AR24" s="142"/>
+      <c r="AS24" s="140"/>
+      <c r="AT24" s="141"/>
+      <c r="AU24" s="141"/>
+      <c r="AV24" s="141"/>
+      <c r="AW24" s="142"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="166"/>
-      <c r="AF25" s="166"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
-      <c r="AI25" s="166"/>
-      <c r="AJ25" s="166"/>
-      <c r="AK25" s="166"/>
-      <c r="AL25" s="166"/>
-      <c r="AM25" s="167"/>
-      <c r="AN25" s="168"/>
-      <c r="AO25" s="169"/>
-      <c r="AP25" s="169"/>
-      <c r="AQ25" s="169"/>
-      <c r="AR25" s="170"/>
-      <c r="AS25" s="168"/>
-      <c r="AT25" s="169"/>
-      <c r="AU25" s="169"/>
-      <c r="AV25" s="169"/>
-      <c r="AW25" s="170"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="159"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="155"/>
+      <c r="AG25" s="155"/>
+      <c r="AH25" s="155"/>
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="155"/>
+      <c r="AK25" s="155"/>
+      <c r="AL25" s="155"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="140"/>
+      <c r="AO25" s="141"/>
+      <c r="AP25" s="141"/>
+      <c r="AQ25" s="141"/>
+      <c r="AR25" s="142"/>
+      <c r="AS25" s="140"/>
+      <c r="AT25" s="141"/>
+      <c r="AU25" s="141"/>
+      <c r="AV25" s="141"/>
+      <c r="AW25" s="142"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="149"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="166"/>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
-      <c r="AI26" s="166"/>
-      <c r="AJ26" s="166"/>
-      <c r="AK26" s="166"/>
-      <c r="AL26" s="166"/>
-      <c r="AM26" s="167"/>
-      <c r="AN26" s="168"/>
-      <c r="AO26" s="169"/>
-      <c r="AP26" s="169"/>
-      <c r="AQ26" s="169"/>
-      <c r="AR26" s="170"/>
-      <c r="AS26" s="168"/>
-      <c r="AT26" s="169"/>
-      <c r="AU26" s="169"/>
-      <c r="AV26" s="169"/>
-      <c r="AW26" s="170"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="155"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="140"/>
+      <c r="AO26" s="141"/>
+      <c r="AP26" s="141"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="142"/>
+      <c r="AS26" s="140"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="141"/>
+      <c r="AW26" s="142"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="166"/>
-      <c r="AF27" s="166"/>
-      <c r="AG27" s="166"/>
-      <c r="AH27" s="166"/>
-      <c r="AI27" s="166"/>
-      <c r="AJ27" s="166"/>
-      <c r="AK27" s="166"/>
-      <c r="AL27" s="166"/>
-      <c r="AM27" s="167"/>
-      <c r="AN27" s="168"/>
-      <c r="AO27" s="169"/>
-      <c r="AP27" s="169"/>
-      <c r="AQ27" s="169"/>
-      <c r="AR27" s="170"/>
-      <c r="AS27" s="168"/>
-      <c r="AT27" s="169"/>
-      <c r="AU27" s="169"/>
-      <c r="AV27" s="169"/>
-      <c r="AW27" s="170"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="155"/>
+      <c r="AG27" s="155"/>
+      <c r="AH27" s="155"/>
+      <c r="AI27" s="155"/>
+      <c r="AJ27" s="155"/>
+      <c r="AK27" s="155"/>
+      <c r="AL27" s="155"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="140"/>
+      <c r="AO27" s="141"/>
+      <c r="AP27" s="141"/>
+      <c r="AQ27" s="141"/>
+      <c r="AR27" s="142"/>
+      <c r="AS27" s="140"/>
+      <c r="AT27" s="141"/>
+      <c r="AU27" s="141"/>
+      <c r="AV27" s="141"/>
+      <c r="AW27" s="142"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="166"/>
-      <c r="AJ28" s="166"/>
-      <c r="AK28" s="166"/>
-      <c r="AL28" s="166"/>
-      <c r="AM28" s="167"/>
-      <c r="AN28" s="168"/>
-      <c r="AO28" s="169"/>
-      <c r="AP28" s="169"/>
-      <c r="AQ28" s="169"/>
-      <c r="AR28" s="170"/>
-      <c r="AS28" s="168"/>
-      <c r="AT28" s="169"/>
-      <c r="AU28" s="169"/>
-      <c r="AV28" s="169"/>
-      <c r="AW28" s="170"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="141"/>
+      <c r="AP28" s="141"/>
+      <c r="AQ28" s="141"/>
+      <c r="AR28" s="142"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="141"/>
+      <c r="AU28" s="141"/>
+      <c r="AV28" s="141"/>
+      <c r="AW28" s="142"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="164"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="166"/>
-      <c r="AJ29" s="166"/>
-      <c r="AK29" s="166"/>
-      <c r="AL29" s="166"/>
-      <c r="AM29" s="167"/>
-      <c r="AN29" s="168"/>
-      <c r="AO29" s="169"/>
-      <c r="AP29" s="169"/>
-      <c r="AQ29" s="169"/>
-      <c r="AR29" s="170"/>
-      <c r="AS29" s="168"/>
-      <c r="AT29" s="169"/>
-      <c r="AU29" s="169"/>
-      <c r="AV29" s="169"/>
-      <c r="AW29" s="170"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="155"/>
+      <c r="AG29" s="155"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="155"/>
+      <c r="AK29" s="155"/>
+      <c r="AL29" s="155"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="140"/>
+      <c r="AO29" s="141"/>
+      <c r="AP29" s="141"/>
+      <c r="AQ29" s="141"/>
+      <c r="AR29" s="142"/>
+      <c r="AS29" s="140"/>
+      <c r="AT29" s="141"/>
+      <c r="AU29" s="141"/>
+      <c r="AV29" s="141"/>
+      <c r="AW29" s="142"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="166"/>
-      <c r="AF30" s="166"/>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
-      <c r="AI30" s="166"/>
-      <c r="AJ30" s="166"/>
-      <c r="AK30" s="166"/>
-      <c r="AL30" s="166"/>
-      <c r="AM30" s="167"/>
-      <c r="AN30" s="168"/>
-      <c r="AO30" s="169"/>
-      <c r="AP30" s="169"/>
-      <c r="AQ30" s="169"/>
-      <c r="AR30" s="170"/>
-      <c r="AS30" s="168"/>
-      <c r="AT30" s="169"/>
-      <c r="AU30" s="169"/>
-      <c r="AV30" s="169"/>
-      <c r="AW30" s="170"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="155"/>
+      <c r="AG30" s="155"/>
+      <c r="AH30" s="155"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="155"/>
+      <c r="AK30" s="155"/>
+      <c r="AL30" s="155"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="141"/>
+      <c r="AP30" s="141"/>
+      <c r="AQ30" s="141"/>
+      <c r="AR30" s="142"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="141"/>
+      <c r="AU30" s="141"/>
+      <c r="AV30" s="141"/>
+      <c r="AW30" s="142"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="165"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="166"/>
-      <c r="AF31" s="166"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
-      <c r="AI31" s="166"/>
-      <c r="AJ31" s="166"/>
-      <c r="AK31" s="166"/>
-      <c r="AL31" s="166"/>
-      <c r="AM31" s="167"/>
-      <c r="AN31" s="168"/>
-      <c r="AO31" s="169"/>
-      <c r="AP31" s="169"/>
-      <c r="AQ31" s="169"/>
-      <c r="AR31" s="170"/>
-      <c r="AS31" s="168"/>
-      <c r="AT31" s="169"/>
-      <c r="AU31" s="169"/>
-      <c r="AV31" s="169"/>
-      <c r="AW31" s="170"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="155"/>
+      <c r="AG31" s="155"/>
+      <c r="AH31" s="155"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="155"/>
+      <c r="AK31" s="155"/>
+      <c r="AL31" s="155"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="141"/>
+      <c r="AP31" s="141"/>
+      <c r="AQ31" s="141"/>
+      <c r="AR31" s="142"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="141"/>
+      <c r="AU31" s="141"/>
+      <c r="AV31" s="141"/>
+      <c r="AW31" s="142"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="164"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="166"/>
-      <c r="AF32" s="166"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166"/>
-      <c r="AI32" s="166"/>
-      <c r="AJ32" s="166"/>
-      <c r="AK32" s="166"/>
-      <c r="AL32" s="166"/>
-      <c r="AM32" s="167"/>
-      <c r="AN32" s="168"/>
-      <c r="AO32" s="169"/>
-      <c r="AP32" s="169"/>
-      <c r="AQ32" s="169"/>
-      <c r="AR32" s="170"/>
-      <c r="AS32" s="168"/>
-      <c r="AT32" s="169"/>
-      <c r="AU32" s="169"/>
-      <c r="AV32" s="169"/>
-      <c r="AW32" s="170"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="153"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="141"/>
+      <c r="AP32" s="141"/>
+      <c r="AQ32" s="141"/>
+      <c r="AR32" s="142"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="141"/>
+      <c r="AU32" s="141"/>
+      <c r="AV32" s="141"/>
+      <c r="AW32" s="142"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="165"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="166"/>
-      <c r="AF33" s="166"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
-      <c r="AI33" s="166"/>
-      <c r="AJ33" s="166"/>
-      <c r="AK33" s="166"/>
-      <c r="AL33" s="166"/>
-      <c r="AM33" s="167"/>
-      <c r="AN33" s="168"/>
-      <c r="AO33" s="169"/>
-      <c r="AP33" s="169"/>
-      <c r="AQ33" s="169"/>
-      <c r="AR33" s="170"/>
-      <c r="AS33" s="168"/>
-      <c r="AT33" s="169"/>
-      <c r="AU33" s="169"/>
-      <c r="AV33" s="169"/>
-      <c r="AW33" s="170"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="155"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="156"/>
+      <c r="AN33" s="140"/>
+      <c r="AO33" s="141"/>
+      <c r="AP33" s="141"/>
+      <c r="AQ33" s="141"/>
+      <c r="AR33" s="142"/>
+      <c r="AS33" s="140"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AV33" s="141"/>
+      <c r="AW33" s="142"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="159"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="165"/>
-      <c r="W34" s="166"/>
-      <c r="X34" s="166"/>
-      <c r="Y34" s="166"/>
-      <c r="Z34" s="166"/>
-      <c r="AA34" s="166"/>
-      <c r="AB34" s="166"/>
-      <c r="AC34" s="166"/>
-      <c r="AD34" s="166"/>
-      <c r="AE34" s="166"/>
-      <c r="AF34" s="166"/>
-      <c r="AG34" s="166"/>
-      <c r="AH34" s="166"/>
-      <c r="AI34" s="166"/>
-      <c r="AJ34" s="166"/>
-      <c r="AK34" s="166"/>
-      <c r="AL34" s="166"/>
-      <c r="AM34" s="167"/>
-      <c r="AN34" s="168"/>
-      <c r="AO34" s="169"/>
-      <c r="AP34" s="169"/>
-      <c r="AQ34" s="169"/>
-      <c r="AR34" s="170"/>
-      <c r="AS34" s="168"/>
-      <c r="AT34" s="169"/>
-      <c r="AU34" s="169"/>
-      <c r="AV34" s="169"/>
-      <c r="AW34" s="170"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="154"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="155"/>
+      <c r="AC34" s="155"/>
+      <c r="AD34" s="155"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="155"/>
+      <c r="AG34" s="155"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="140"/>
+      <c r="AO34" s="141"/>
+      <c r="AP34" s="141"/>
+      <c r="AQ34" s="141"/>
+      <c r="AR34" s="142"/>
+      <c r="AS34" s="140"/>
+      <c r="AT34" s="141"/>
+      <c r="AU34" s="141"/>
+      <c r="AV34" s="141"/>
+      <c r="AW34" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6973,239 +7206,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7365,11 +7365,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="184"/>
-      <c r="AP2" s="185"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="186"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="181"/>
+      <c r="AQ2" s="181"/>
+      <c r="AR2" s="181"/>
+      <c r="AS2" s="182"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7378,14 +7378,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="188"/>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="188"/>
-      <c r="BG2" s="189"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="184"/>
+      <c r="BB2" s="184"/>
+      <c r="BC2" s="184"/>
+      <c r="BD2" s="184"/>
+      <c r="BE2" s="184"/>
+      <c r="BF2" s="184"/>
+      <c r="BG2" s="185"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="191"/>
+      <c r="C43" s="189"/>
       <c r="D43" s="74" t="s">
         <v>72</v>
       </c>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="180">
+      <c r="B44" s="190">
         <v>1</v>
       </c>
-      <c r="C44" s="181"/>
+      <c r="C44" s="191"/>
       <c r="D44" s="105" t="s">
         <v>83</v>
       </c>
@@ -8976,16 +8976,16 @@
       <c r="AB44" s="72"/>
       <c r="AC44" s="72"/>
       <c r="AD44" s="106"/>
-      <c r="AE44" s="182" t="s">
+      <c r="AE44" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AF44" s="183"/>
-      <c r="AG44" s="182"/>
-      <c r="AH44" s="183"/>
-      <c r="AI44" s="182"/>
-      <c r="AJ44" s="183"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="183"/>
+      <c r="AF44" s="187"/>
+      <c r="AG44" s="186"/>
+      <c r="AH44" s="187"/>
+      <c r="AI44" s="186"/>
+      <c r="AJ44" s="187"/>
+      <c r="AK44" s="186"/>
+      <c r="AL44" s="187"/>
       <c r="AM44" s="69" t="s">
         <v>117</v>
       </c>
@@ -9019,10 +9019,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="180">
+      <c r="B45" s="190">
         <v>2</v>
       </c>
-      <c r="C45" s="181"/>
+      <c r="C45" s="191"/>
       <c r="D45" s="68" t="s">
         <v>83</v>
       </c>
@@ -9054,16 +9054,16 @@
       <c r="AB45" s="72"/>
       <c r="AC45" s="72"/>
       <c r="AD45" s="73"/>
-      <c r="AE45" s="182" t="s">
+      <c r="AE45" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AF45" s="183"/>
-      <c r="AG45" s="182"/>
-      <c r="AH45" s="183"/>
-      <c r="AI45" s="182"/>
-      <c r="AJ45" s="183"/>
-      <c r="AK45" s="182"/>
-      <c r="AL45" s="183"/>
+      <c r="AF45" s="187"/>
+      <c r="AG45" s="186"/>
+      <c r="AH45" s="187"/>
+      <c r="AI45" s="186"/>
+      <c r="AJ45" s="187"/>
+      <c r="AK45" s="186"/>
+      <c r="AL45" s="187"/>
       <c r="AM45" s="69" t="s">
         <v>173</v>
       </c>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="180">
+      <c r="B46" s="190">
         <v>3</v>
       </c>
-      <c r="C46" s="181"/>
+      <c r="C46" s="191"/>
       <c r="D46" s="105" t="s">
         <v>83</v>
       </c>
@@ -9132,16 +9132,16 @@
       <c r="AB46" s="72"/>
       <c r="AC46" s="72"/>
       <c r="AD46" s="106"/>
-      <c r="AE46" s="182" t="s">
+      <c r="AE46" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AF46" s="183"/>
-      <c r="AG46" s="182"/>
-      <c r="AH46" s="183"/>
-      <c r="AI46" s="182"/>
-      <c r="AJ46" s="183"/>
-      <c r="AK46" s="182"/>
-      <c r="AL46" s="183"/>
+      <c r="AF46" s="187"/>
+      <c r="AG46" s="186"/>
+      <c r="AH46" s="187"/>
+      <c r="AI46" s="186"/>
+      <c r="AJ46" s="187"/>
+      <c r="AK46" s="186"/>
+      <c r="AL46" s="187"/>
       <c r="AM46" s="69" t="s">
         <v>174</v>
       </c>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="180">
+      <c r="B47" s="190">
         <v>4</v>
       </c>
-      <c r="C47" s="181"/>
+      <c r="C47" s="191"/>
       <c r="D47" s="105" t="s">
         <v>113</v>
       </c>
@@ -9210,16 +9210,16 @@
       <c r="AB47" s="72"/>
       <c r="AC47" s="72"/>
       <c r="AD47" s="101"/>
-      <c r="AE47" s="182" t="s">
+      <c r="AE47" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AF47" s="183"/>
-      <c r="AG47" s="182"/>
-      <c r="AH47" s="183"/>
-      <c r="AI47" s="182"/>
-      <c r="AJ47" s="183"/>
-      <c r="AK47" s="182"/>
-      <c r="AL47" s="183"/>
+      <c r="AF47" s="187"/>
+      <c r="AG47" s="186"/>
+      <c r="AH47" s="187"/>
+      <c r="AI47" s="186"/>
+      <c r="AJ47" s="187"/>
+      <c r="AK47" s="186"/>
+      <c r="AL47" s="187"/>
       <c r="AM47" s="69" t="s">
         <v>175</v>
       </c>
@@ -9253,10 +9253,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="180">
+      <c r="B48" s="190">
         <v>5</v>
       </c>
-      <c r="C48" s="181"/>
+      <c r="C48" s="191"/>
       <c r="D48" s="105" t="s">
         <v>113</v>
       </c>
@@ -9288,16 +9288,16 @@
       <c r="AB48" s="72"/>
       <c r="AC48" s="72"/>
       <c r="AD48" s="106"/>
-      <c r="AE48" s="182" t="s">
+      <c r="AE48" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AF48" s="183"/>
-      <c r="AG48" s="182"/>
-      <c r="AH48" s="183"/>
-      <c r="AI48" s="182"/>
-      <c r="AJ48" s="183"/>
-      <c r="AK48" s="182"/>
-      <c r="AL48" s="183"/>
+      <c r="AF48" s="187"/>
+      <c r="AG48" s="186"/>
+      <c r="AH48" s="187"/>
+      <c r="AI48" s="186"/>
+      <c r="AJ48" s="187"/>
+      <c r="AK48" s="186"/>
+      <c r="AL48" s="187"/>
       <c r="AM48" s="69" t="s">
         <v>175</v>
       </c>
@@ -9331,6 +9331,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -9344,21 +9359,6 @@
     <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9504,7 +9504,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="187" t="str">
+      <c r="CU1" s="183" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="187"/>
+      <c r="CU2" s="183"/>
       <c r="CV2" s="192"/>
       <c r="CW2" s="192"/>
       <c r="CX2" s="192"/>
@@ -9854,22 +9854,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="173" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="201" t="s">
@@ -9878,13 +9878,13 @@
       <c r="J6" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="142" t="s">
+      <c r="L6" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="142" t="s">
+      <c r="M6" s="173" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="62" t="s">
@@ -9899,17 +9899,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
       <c r="I7" s="201"/>
       <c r="J7" s="201"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
       <c r="N7" s="41" t="s">
         <v>56</v>
       </c>
@@ -10032,22 +10032,22 @@
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="173" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="202" t="s">
@@ -10056,13 +10056,13 @@
       <c r="J12" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="142" t="s">
+      <c r="K12" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="142" t="s">
+      <c r="L12" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="142" t="s">
+      <c r="M12" s="173" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="62" t="s">
@@ -10077,17 +10077,17 @@
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="203"/>
       <c r="J13" s="201"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
       <c r="N13" s="41" t="s">
         <v>56</v>
       </c>
@@ -10363,22 +10363,22 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="142" t="s">
+      <c r="E21" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="142" t="s">
+      <c r="F21" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="142" t="s">
+      <c r="G21" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="173" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="201" t="s">
@@ -10387,13 +10387,13 @@
       <c r="J21" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="142" t="s">
+      <c r="L21" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="142" t="s">
+      <c r="M21" s="173" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="62" t="s">
@@ -10408,17 +10408,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
       <c r="I22" s="201"/>
       <c r="J22" s="201"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
       <c r="N22" s="79" t="s">
         <v>56</v>
       </c>
@@ -10802,22 +10802,22 @@
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="142" t="s">
+      <c r="D33" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="142" t="s">
+      <c r="E33" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="142" t="s">
+      <c r="F33" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="142" t="s">
+      <c r="G33" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="142" t="s">
+      <c r="H33" s="173" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="201" t="s">
@@ -10826,13 +10826,13 @@
       <c r="J33" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="142" t="s">
+      <c r="K33" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="142" t="s">
+      <c r="L33" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="142" t="s">
+      <c r="M33" s="173" t="s">
         <v>33</v>
       </c>
       <c r="N33" s="62" t="s">
@@ -10847,17 +10847,17 @@
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
       <c r="I34" s="201"/>
       <c r="J34" s="201"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
       <c r="N34" s="114" t="s">
         <v>56</v>
       </c>
@@ -11018,42 +11018,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -11066,6 +11030,42 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11141,7 +11141,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="184">
+      <c r="AI1" s="180">
         <f>変更履歴!E5</f>
         <v>43738</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="187" t="str">
+      <c r="AT1" s="183" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="187"/>
+      <c r="AT2" s="183"/>
       <c r="AU2" s="192"/>
       <c r="AV2" s="192"/>
       <c r="AW2" s="192"/>
@@ -21062,7 +21062,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="184">
+      <c r="AI1" s="180">
         <f>変更履歴!E5</f>
         <v>43738</v>
       </c>
@@ -21078,7 +21078,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="187" t="str">
+      <c r="AT1" s="183" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -21149,7 +21149,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="187"/>
+      <c r="AT2" s="183"/>
       <c r="AU2" s="192"/>
       <c r="AV2" s="192"/>
       <c r="AW2" s="192"/>
@@ -21880,7 +21880,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="184">
+      <c r="AI1" s="180">
         <f>変更履歴!E5</f>
         <v>43738</v>
       </c>
@@ -21896,7 +21896,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="187" t="str">
+      <c r="AT1" s="183" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -21967,7 +21967,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="187"/>
+      <c r="AT2" s="183"/>
       <c r="AU2" s="192"/>
       <c r="AV2" s="192"/>
       <c r="AW2" s="192"/>
@@ -22573,17 +22573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="I9:K10"/>
     <mergeCell ref="N9:P10"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="AI1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -22595,12 +22595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -22758,6 +22752,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22768,15 +22768,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22794,6 +22785,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K16A_成形実績参照詳細.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16A_成形実績参照詳細.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A8F0F-828A-4F6C-9767-3A26993EA043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCABF75-217D-40DF-8E50-4289A1C80361}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="7" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -125,21 +125,11 @@
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="299">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -987,22 +977,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>工程</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Process</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>個体NO</t>
@@ -1914,26 +1893,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>３．３．２　合計行</t>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>RSLT-CNT1-001</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RSLT-CNT1-002</t>
-  </si>
-  <si>
-    <t>RSLT-CNT1-003</t>
-  </si>
-  <si>
     <t>・LEFT JOIN 生産品名マスタ</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -2091,13 +2050,6 @@
     <t>'10'：成形</t>
   </si>
   <si>
-    <t>10:成形</t>
-    <rPh sb="3" eb="5">
-      <t>セイケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>成形実績参照詳細</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2152,40 +2104,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>数量の合計を計算</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>固定値「合計」</t>
-    <rPh sb="0" eb="3">
-      <t>コテイチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他列は空欄で表示する</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>###,##0</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2198,6 +2116,17 @@
   </si>
   <si>
     <t>K-16A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Equipment</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2205,10 +2134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2670,7 +2598,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -2683,7 +2611,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2845,7 +2773,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2917,7 +2845,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3010,9 +2938,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3025,7 +2950,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -3079,6 +3004,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3106,7 +3034,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3200,7 +3128,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3251,7 +3179,7 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4246,17 +4174,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>36857</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>170729</xdr:rowOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>122215</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B92E415-E83D-4279-97A4-FA42BD446B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A860A92D-0CA3-43EF-8B74-389D8CB9A9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4273,7 +4201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="9942857" cy="5771429"/>
+          <a:ext cx="12876190" cy="6866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7220,7 +7148,7 @@
   </sheetPr>
   <dimension ref="A1:BN48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
@@ -7337,14 +7265,14 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="80" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="S2" s="81"/>
       <c r="T2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="82"/>
       <c r="W2" s="35" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
@@ -8533,7 +8461,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -8548,7 +8476,7 @@
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG36" s="11"/>
       <c r="AI36" s="9"/>
@@ -8578,7 +8506,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -8624,7 +8552,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -8955,7 +8883,7 @@
       <c r="I44" s="72"/>
       <c r="J44" s="106"/>
       <c r="K44" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L44" s="72"/>
       <c r="M44" s="72"/>
@@ -9033,7 +8961,7 @@
       <c r="I45" s="72"/>
       <c r="J45" s="73"/>
       <c r="K45" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L45" s="72"/>
       <c r="M45" s="72"/>
@@ -9065,7 +8993,7 @@
       <c r="AK45" s="186"/>
       <c r="AL45" s="187"/>
       <c r="AM45" s="69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AN45" s="70"/>
       <c r="AO45" s="70"/>
@@ -9111,7 +9039,7 @@
       <c r="I46" s="72"/>
       <c r="J46" s="106"/>
       <c r="K46" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L46" s="72"/>
       <c r="M46" s="72"/>
@@ -9143,7 +9071,7 @@
       <c r="AK46" s="186"/>
       <c r="AL46" s="187"/>
       <c r="AM46" s="69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AN46" s="70"/>
       <c r="AO46" s="70"/>
@@ -9189,7 +9117,7 @@
       <c r="I47" s="72"/>
       <c r="J47" s="101"/>
       <c r="K47" s="100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L47" s="72"/>
       <c r="M47" s="72"/>
@@ -9221,7 +9149,7 @@
       <c r="AK47" s="186"/>
       <c r="AL47" s="187"/>
       <c r="AM47" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AN47" s="70"/>
       <c r="AO47" s="70"/>
@@ -9299,7 +9227,7 @@
       <c r="AK48" s="186"/>
       <c r="AL48" s="187"/>
       <c r="AM48" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AN48" s="70"/>
       <c r="AO48" s="70"/>
@@ -9363,7 +9291,7 @@
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -9731,9 +9659,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
@@ -9934,7 +9862,7 @@
         <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>82</v>
@@ -9982,8 +9910,8 @@
       <c r="E9" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="118" t="s">
-        <v>253</v>
+      <c r="F9" s="117" t="s">
+        <v>251</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>82</v>
@@ -10016,7 +9944,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10128,13 +10056,13 @@
         <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="N14" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>35</v>
@@ -10158,14 +10086,14 @@
       <c r="E15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>35</v>
@@ -10189,10 +10117,10 @@
         <v>34</v>
       </c>
       <c r="P15" s="113" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -10202,17 +10130,17 @@
       <c r="D16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>131</v>
+      <c r="E16" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>298</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>35</v>
@@ -10223,9 +10151,7 @@
       <c r="K16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="132" t="s">
-        <v>288</v>
-      </c>
+      <c r="L16" s="131"/>
       <c r="M16" s="7" t="s">
         <v>35</v>
       </c>
@@ -10250,16 +10176,16 @@
         <v>111</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>35</v>
@@ -10283,7 +10209,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>34</v>
@@ -10300,13 +10226,13 @@
         <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>35</v>
@@ -10330,7 +10256,7 @@
         <v>35</v>
       </c>
       <c r="P18" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>34</v>
@@ -10356,8 +10282,8 @@
       <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="115" t="s">
-        <v>256</v>
+      <c r="B20" s="114" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10488,7 +10414,7 @@
         <v>35</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>35</v>
@@ -10510,10 +10436,10 @@
         <v>89</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>92</v>
@@ -10543,7 +10469,7 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>35</v>
@@ -10559,10 +10485,10 @@
         <v>90</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>92</v>
@@ -10592,7 +10518,7 @@
         <v>35</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>35</v>
@@ -10608,10 +10534,10 @@
         <v>104</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>92</v>
@@ -10625,8 +10551,8 @@
       <c r="J27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="135" t="s">
-        <v>305</v>
+      <c r="K27" s="134" t="s">
+        <v>294</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>35</v>
@@ -10641,10 +10567,10 @@
         <v>35</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10657,10 +10583,10 @@
         <v>105</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>92</v>
@@ -10690,7 +10616,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -10706,10 +10632,10 @@
         <v>106</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>92</v>
@@ -10739,7 +10665,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -10755,10 +10681,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>92</v>
@@ -10794,230 +10720,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="115" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="173" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="173" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="173" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="201" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="173" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="173" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="201" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="201"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="O34" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" s="201"/>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="135" t="s">
-        <v>305</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="36">
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -11054,18 +10758,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11522,7 +11214,7 @@
       <c r="G10" s="65"/>
       <c r="K10" s="66"/>
       <c r="L10" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AV10" s="66"/>
     </row>
@@ -11533,7 +11225,7 @@
       <c r="G11" s="65"/>
       <c r="K11" s="66"/>
       <c r="M11" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AV11" s="66"/>
     </row>
@@ -11742,7 +11434,7 @@
       <c r="K16" s="66"/>
       <c r="L16" s="98"/>
       <c r="M16" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y16" s="98"/>
       <c r="Z16" s="98"/>
@@ -11776,7 +11468,7 @@
       <c r="G17" s="65"/>
       <c r="L17" s="65"/>
       <c r="N17" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AV17" s="66"/>
     </row>
@@ -11787,7 +11479,7 @@
       <c r="G18" s="65"/>
       <c r="K18" s="66"/>
       <c r="O18" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P18" s="102"/>
       <c r="Q18" s="102"/>
@@ -11807,7 +11499,7 @@
       <c r="G19" s="65"/>
       <c r="K19" s="66"/>
       <c r="P19" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="102"/>
       <c r="R19" s="102"/>
@@ -11828,7 +11520,7 @@
       <c r="G20" s="65"/>
       <c r="K20" s="66"/>
       <c r="P20" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="102"/>
       <c r="R20" s="102"/>
@@ -11849,7 +11541,7 @@
       <c r="G21" s="65"/>
       <c r="K21" s="66"/>
       <c r="P21" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="102"/>
       <c r="R21" s="102"/>
@@ -11869,7 +11561,7 @@
       <c r="G22" s="65"/>
       <c r="K22" s="66"/>
       <c r="P22" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="102"/>
       <c r="R22" s="102"/>
@@ -11889,7 +11581,7 @@
       <c r="G23" s="65"/>
       <c r="K23" s="66"/>
       <c r="P23" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="102"/>
       <c r="R23" s="102"/>
@@ -11928,7 +11620,7 @@
       <c r="G25" s="65"/>
       <c r="K25" s="66"/>
       <c r="O25" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P25" s="102"/>
       <c r="Q25" s="102"/>
@@ -11948,7 +11640,7 @@
       <c r="G26" s="65"/>
       <c r="K26" s="66"/>
       <c r="P26" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="102"/>
       <c r="R26" s="102"/>
@@ -11968,7 +11660,7 @@
       <c r="G27" s="65"/>
       <c r="K27" s="66"/>
       <c r="P27" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="102"/>
       <c r="R27" s="102"/>
@@ -11990,7 +11682,7 @@
       <c r="K28" s="66"/>
       <c r="P28" s="102"/>
       <c r="Q28" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R28" s="102"/>
       <c r="S28" s="102"/>
@@ -12004,7 +11696,7 @@
         <v>96</v>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM28" s="102"/>
       <c r="AV28" s="66"/>
@@ -12017,7 +11709,7 @@
       <c r="K29" s="66"/>
       <c r="P29" s="102"/>
       <c r="Q29" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R29" s="102"/>
       <c r="S29" s="102"/>
@@ -12031,7 +11723,7 @@
         <v>96</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV29" s="66"/>
     </row>
@@ -12040,9 +11732,9 @@
       <c r="C30" s="65"/>
       <c r="F30" s="66"/>
       <c r="G30" s="65"/>
-      <c r="L30" s="116"/>
+      <c r="L30" s="115"/>
       <c r="P30" s="102" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="102"/>
       <c r="R30" s="102"/>
@@ -12067,10 +11759,10 @@
       <c r="AK30" s="102"/>
       <c r="AL30" s="102"/>
       <c r="AM30" s="102"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="117"/>
-      <c r="AP30" s="117"/>
-      <c r="AQ30" s="117"/>
+      <c r="AN30" s="116"/>
+      <c r="AO30" s="116"/>
+      <c r="AP30" s="116"/>
+      <c r="AQ30" s="116"/>
       <c r="AV30" s="66"/>
     </row>
     <row r="31" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12078,10 +11770,10 @@
       <c r="C31" s="65"/>
       <c r="F31" s="66"/>
       <c r="G31" s="65"/>
-      <c r="L31" s="116"/>
+      <c r="L31" s="115"/>
       <c r="P31" s="102"/>
       <c r="Q31" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R31" s="102"/>
       <c r="S31" s="102"/>
@@ -12095,7 +11787,7 @@
         <v>96</v>
       </c>
       <c r="AA31" s="102" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AB31" s="102"/>
       <c r="AC31" s="102"/>
@@ -12109,10 +11801,10 @@
       <c r="AK31" s="102"/>
       <c r="AL31" s="102"/>
       <c r="AM31" s="102"/>
-      <c r="AN31" s="117"/>
-      <c r="AO31" s="117"/>
-      <c r="AP31" s="117"/>
-      <c r="AQ31" s="117"/>
+      <c r="AN31" s="116"/>
+      <c r="AO31" s="116"/>
+      <c r="AP31" s="116"/>
+      <c r="AQ31" s="116"/>
       <c r="AV31" s="66"/>
     </row>
     <row r="32" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12120,10 +11812,10 @@
       <c r="C32" s="65"/>
       <c r="F32" s="66"/>
       <c r="G32" s="65"/>
-      <c r="L32" s="116"/>
+      <c r="L32" s="115"/>
       <c r="P32" s="102"/>
       <c r="Q32" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R32" s="102"/>
       <c r="S32" s="102"/>
@@ -12137,7 +11829,7 @@
         <v>96</v>
       </c>
       <c r="AA32" s="102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AB32" s="102"/>
       <c r="AC32" s="102"/>
@@ -12151,10 +11843,10 @@
       <c r="AK32" s="102"/>
       <c r="AL32" s="102"/>
       <c r="AM32" s="102"/>
-      <c r="AN32" s="117"/>
-      <c r="AO32" s="117"/>
-      <c r="AP32" s="117"/>
-      <c r="AQ32" s="117"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="116"/>
+      <c r="AP32" s="116"/>
+      <c r="AQ32" s="116"/>
       <c r="AV32" s="66"/>
     </row>
     <row r="33" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12162,10 +11854,10 @@
       <c r="C33" s="65"/>
       <c r="F33" s="66"/>
       <c r="G33" s="65"/>
-      <c r="L33" s="116"/>
+      <c r="L33" s="115"/>
       <c r="P33" s="102"/>
       <c r="Q33" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R33" s="102"/>
       <c r="S33" s="102"/>
@@ -12179,7 +11871,7 @@
         <v>96</v>
       </c>
       <c r="AA33" s="102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AB33" s="102"/>
       <c r="AC33" s="102"/>
@@ -12193,10 +11885,10 @@
       <c r="AK33" s="102"/>
       <c r="AL33" s="102"/>
       <c r="AM33" s="102"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="117"/>
-      <c r="AP33" s="117"/>
-      <c r="AQ33" s="117"/>
+      <c r="AN33" s="116"/>
+      <c r="AO33" s="116"/>
+      <c r="AP33" s="116"/>
+      <c r="AQ33" s="116"/>
       <c r="AV33" s="66"/>
     </row>
     <row r="34" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12204,10 +11896,10 @@
       <c r="C34" s="65"/>
       <c r="F34" s="66"/>
       <c r="G34" s="65"/>
-      <c r="L34" s="116"/>
+      <c r="L34" s="115"/>
       <c r="P34" s="102"/>
       <c r="Q34" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R34" s="102"/>
       <c r="S34" s="102"/>
@@ -12221,7 +11913,7 @@
         <v>96</v>
       </c>
       <c r="AA34" s="102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AB34" s="102"/>
       <c r="AC34" s="102"/>
@@ -12235,10 +11927,10 @@
       <c r="AK34" s="102"/>
       <c r="AL34" s="102"/>
       <c r="AM34" s="102"/>
-      <c r="AN34" s="117"/>
-      <c r="AO34" s="117"/>
-      <c r="AP34" s="117"/>
-      <c r="AQ34" s="117"/>
+      <c r="AN34" s="116"/>
+      <c r="AO34" s="116"/>
+      <c r="AP34" s="116"/>
+      <c r="AQ34" s="116"/>
       <c r="AV34" s="66"/>
     </row>
     <row r="35" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12246,10 +11938,10 @@
       <c r="C35" s="65"/>
       <c r="F35" s="66"/>
       <c r="G35" s="65"/>
-      <c r="L35" s="116"/>
+      <c r="L35" s="115"/>
       <c r="P35" s="102"/>
       <c r="Q35" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R35" s="102"/>
       <c r="S35" s="102"/>
@@ -12263,7 +11955,7 @@
         <v>96</v>
       </c>
       <c r="AA35" s="102" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AB35" s="102"/>
       <c r="AC35" s="102"/>
@@ -12277,10 +11969,10 @@
       <c r="AK35" s="102"/>
       <c r="AL35" s="102"/>
       <c r="AM35" s="102"/>
-      <c r="AN35" s="117"/>
-      <c r="AO35" s="117"/>
-      <c r="AP35" s="117"/>
-      <c r="AQ35" s="117"/>
+      <c r="AN35" s="116"/>
+      <c r="AO35" s="116"/>
+      <c r="AP35" s="116"/>
+      <c r="AQ35" s="116"/>
       <c r="AV35" s="66"/>
     </row>
     <row r="36" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12290,7 +11982,7 @@
       <c r="G36" s="65"/>
       <c r="K36" s="66"/>
       <c r="P36" s="102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="102"/>
       <c r="R36" s="102"/>
@@ -12312,7 +12004,7 @@
       <c r="K37" s="66"/>
       <c r="P37" s="102"/>
       <c r="Q37" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R37" s="102"/>
       <c r="S37" s="102"/>
@@ -12326,7 +12018,7 @@
         <v>96</v>
       </c>
       <c r="AA37" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM37" s="102"/>
       <c r="AV37" s="66"/>
@@ -12339,7 +12031,7 @@
       <c r="K38" s="66"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R38" s="102"/>
       <c r="S38" s="102"/>
@@ -12353,7 +12045,7 @@
         <v>96</v>
       </c>
       <c r="AA38" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM38" s="102"/>
       <c r="AV38" s="66"/>
@@ -12366,7 +12058,7 @@
       <c r="K39" s="66"/>
       <c r="P39" s="102"/>
       <c r="Q39" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R39" s="102"/>
       <c r="S39" s="102"/>
@@ -12380,7 +12072,7 @@
         <v>96</v>
       </c>
       <c r="AA39" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM39" s="102"/>
       <c r="AV39" s="66"/>
@@ -12393,7 +12085,7 @@
       <c r="K40" s="66"/>
       <c r="P40" s="102"/>
       <c r="Q40" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R40" s="102"/>
       <c r="S40" s="102"/>
@@ -12407,7 +12099,7 @@
         <v>96</v>
       </c>
       <c r="AA40" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM40" s="102"/>
       <c r="AV40" s="66"/>
@@ -12420,7 +12112,7 @@
       <c r="K41" s="66"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R41" s="102"/>
       <c r="S41" s="102"/>
@@ -12434,7 +12126,7 @@
         <v>96</v>
       </c>
       <c r="AA41" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM41" s="102"/>
       <c r="AV41" s="66"/>
@@ -12446,7 +12138,7 @@
       <c r="G42" s="65"/>
       <c r="K42" s="66"/>
       <c r="P42" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q42" s="102"/>
       <c r="R42" s="102"/>
@@ -12468,7 +12160,7 @@
       <c r="K43" s="66"/>
       <c r="P43" s="102"/>
       <c r="Q43" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R43" s="102"/>
       <c r="S43" s="102"/>
@@ -12482,7 +12174,7 @@
         <v>96</v>
       </c>
       <c r="AA43" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM43" s="102"/>
       <c r="AV43" s="66"/>
@@ -12528,7 +12220,7 @@
       <c r="G45" s="65"/>
       <c r="K45" s="66"/>
       <c r="O45" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P45" s="102"/>
       <c r="Q45" s="102"/>
@@ -12562,7 +12254,7 @@
       <c r="K46" s="66"/>
       <c r="M46" s="102"/>
       <c r="P46" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q46" s="102"/>
       <c r="R46" s="102"/>
@@ -12576,7 +12268,7 @@
         <v>96</v>
       </c>
       <c r="AA46" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB46" s="102"/>
       <c r="AC46" s="102"/>
@@ -12595,7 +12287,7 @@
       <c r="K47" s="66"/>
       <c r="M47" s="102"/>
       <c r="P47" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q47" s="102"/>
       <c r="R47" s="102"/>
@@ -12608,8 +12300,8 @@
       <c r="Z47" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA47" s="131" t="s">
-        <v>287</v>
+      <c r="AA47" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB47" s="102"/>
       <c r="AC47" s="102"/>
@@ -12628,7 +12320,7 @@
       <c r="K48" s="66"/>
       <c r="M48" s="102"/>
       <c r="P48" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q48" s="102"/>
       <c r="R48" s="102"/>
@@ -12642,7 +12334,7 @@
         <v>96</v>
       </c>
       <c r="AA48" s="103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB48" s="102"/>
       <c r="AC48" s="102"/>
@@ -12661,7 +12353,7 @@
       <c r="K49" s="66"/>
       <c r="M49" s="102"/>
       <c r="P49" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q49" s="102"/>
       <c r="R49" s="102"/>
@@ -12672,7 +12364,7 @@
       <c r="W49" s="102"/>
       <c r="X49" s="102"/>
       <c r="Z49" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA49" s="102"/>
       <c r="AB49" s="102"/>
@@ -12683,7 +12375,7 @@
       <c r="AK49" s="102"/>
       <c r="AL49" s="104"/>
       <c r="AO49" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV49" s="66"/>
     </row>
@@ -12709,7 +12401,7 @@
         <v>96</v>
       </c>
       <c r="AA50" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB50" s="102"/>
       <c r="AC50" s="102"/>
@@ -12719,7 +12411,7 @@
       <c r="AJ50" s="102"/>
       <c r="AK50" s="104"/>
       <c r="AO50" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV50" s="66"/>
     </row>
@@ -12731,7 +12423,7 @@
       <c r="K51" s="66"/>
       <c r="M51" s="102"/>
       <c r="P51" s="102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q51" s="102"/>
       <c r="R51" s="102"/>
@@ -12745,7 +12437,7 @@
         <v>96</v>
       </c>
       <c r="AA51" s="102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB51" s="102"/>
       <c r="AC51" s="102"/>
@@ -12755,7 +12447,7 @@
       <c r="AJ51" s="102"/>
       <c r="AK51" s="104"/>
       <c r="AO51" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV51" s="66"/>
     </row>
@@ -12767,7 +12459,7 @@
       <c r="K52" s="66"/>
       <c r="M52" s="102"/>
       <c r="P52" s="102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q52" s="102"/>
       <c r="R52" s="102"/>
@@ -12781,7 +12473,7 @@
         <v>96</v>
       </c>
       <c r="AA52" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AB52" s="102"/>
       <c r="AC52" s="102"/>
@@ -12791,7 +12483,7 @@
       <c r="AJ52" s="102"/>
       <c r="AK52" s="104"/>
       <c r="AO52" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV52" s="66"/>
     </row>
@@ -12803,7 +12495,7 @@
       <c r="K53" s="66"/>
       <c r="M53" s="102"/>
       <c r="P53" s="102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q53" s="102"/>
       <c r="R53" s="102"/>
@@ -12817,7 +12509,7 @@
         <v>96</v>
       </c>
       <c r="AA53" s="102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB53" s="102"/>
       <c r="AC53" s="102"/>
@@ -12827,7 +12519,7 @@
       <c r="AJ53" s="102"/>
       <c r="AK53" s="104"/>
       <c r="AO53" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV53" s="66"/>
     </row>
@@ -12839,7 +12531,7 @@
       <c r="K54" s="66"/>
       <c r="M54" s="102"/>
       <c r="P54" s="102" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q54" s="102"/>
       <c r="R54" s="102"/>
@@ -12850,7 +12542,7 @@
       <c r="W54" s="102"/>
       <c r="X54" s="102"/>
       <c r="Z54" s="102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AA54" s="102"/>
       <c r="AB54" s="102"/>
@@ -12861,7 +12553,7 @@
       <c r="AJ54" s="102"/>
       <c r="AK54" s="104"/>
       <c r="AO54" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV54" s="66"/>
     </row>
@@ -12884,7 +12576,7 @@
       <c r="G56" s="65"/>
       <c r="K56" s="66"/>
       <c r="O56" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL56" s="102"/>
       <c r="AM56" s="102"/>
@@ -12898,7 +12590,7 @@
       <c r="G57" s="65"/>
       <c r="K57" s="66"/>
       <c r="P57" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL57" s="102"/>
       <c r="AM57" s="102"/>
@@ -12912,7 +12604,7 @@
       <c r="G58" s="65"/>
       <c r="K58" s="66"/>
       <c r="P58" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL58" s="102"/>
       <c r="AM58" s="102"/>
@@ -12926,7 +12618,7 @@
       <c r="G59" s="65"/>
       <c r="K59" s="66"/>
       <c r="P59" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL59" s="102"/>
       <c r="AM59" s="102"/>
@@ -12940,7 +12632,7 @@
       <c r="G60" s="65"/>
       <c r="K60" s="66"/>
       <c r="P60" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL60" s="102"/>
       <c r="AM60" s="102"/>
@@ -12980,7 +12672,7 @@
       <c r="G63" s="65"/>
       <c r="K63" s="66"/>
       <c r="P63" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL63" s="102"/>
       <c r="AM63" s="102"/>
@@ -12994,7 +12686,7 @@
       <c r="G64" s="65"/>
       <c r="K64" s="66"/>
       <c r="P64" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL64" s="102"/>
       <c r="AM64" s="102"/>
@@ -13016,7 +12708,7 @@
       <c r="G66" s="65"/>
       <c r="L66" s="65"/>
       <c r="N66" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AV66" s="66"/>
     </row>
@@ -13027,7 +12719,7 @@
       <c r="G67" s="65"/>
       <c r="K67" s="66"/>
       <c r="O67" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P67" s="102"/>
       <c r="Q67" s="102"/>
@@ -13047,7 +12739,7 @@
       <c r="G68" s="65"/>
       <c r="K68" s="66"/>
       <c r="P68" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q68" s="102"/>
       <c r="R68" s="102"/>
@@ -13068,7 +12760,7 @@
       <c r="G69" s="65"/>
       <c r="K69" s="66"/>
       <c r="P69" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q69" s="102"/>
       <c r="R69" s="102"/>
@@ -13089,7 +12781,7 @@
       <c r="G70" s="65"/>
       <c r="K70" s="66"/>
       <c r="P70" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q70" s="102"/>
       <c r="R70" s="102"/>
@@ -13109,7 +12801,7 @@
       <c r="G71" s="65"/>
       <c r="K71" s="66"/>
       <c r="P71" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q71" s="102"/>
       <c r="R71" s="102"/>
@@ -13129,7 +12821,7 @@
       <c r="G72" s="65"/>
       <c r="K72" s="66"/>
       <c r="P72" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q72" s="102"/>
       <c r="R72" s="102"/>
@@ -13168,7 +12860,7 @@
       <c r="G74" s="65"/>
       <c r="K74" s="66"/>
       <c r="O74" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P74" s="102"/>
       <c r="Q74" s="102"/>
@@ -13188,7 +12880,7 @@
       <c r="G75" s="65"/>
       <c r="K75" s="66"/>
       <c r="P75" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q75" s="102"/>
       <c r="R75" s="102"/>
@@ -13208,7 +12900,7 @@
       <c r="G76" s="65"/>
       <c r="K76" s="66"/>
       <c r="P76" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q76" s="102"/>
       <c r="R76" s="102"/>
@@ -13230,7 +12922,7 @@
       <c r="K77" s="66"/>
       <c r="P77" s="102"/>
       <c r="Q77" s="102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R77" s="102"/>
       <c r="S77" s="102"/>
@@ -13244,7 +12936,7 @@
         <v>96</v>
       </c>
       <c r="AA77" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM77" s="102"/>
       <c r="AV77" s="66"/>
@@ -13257,7 +12949,7 @@
       <c r="K78" s="66"/>
       <c r="P78" s="102"/>
       <c r="Q78" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R78" s="102"/>
       <c r="S78" s="102"/>
@@ -13271,7 +12963,7 @@
         <v>96</v>
       </c>
       <c r="AA78" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV78" s="66"/>
     </row>
@@ -13282,7 +12974,7 @@
       <c r="G79" s="65"/>
       <c r="K79" s="66"/>
       <c r="P79" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q79" s="102"/>
       <c r="R79" s="102"/>
@@ -13304,7 +12996,7 @@
       <c r="K80" s="66"/>
       <c r="P80" s="102"/>
       <c r="Q80" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R80" s="102"/>
       <c r="S80" s="102"/>
@@ -13318,7 +13010,7 @@
         <v>96</v>
       </c>
       <c r="AA80" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM80" s="102"/>
       <c r="AV80" s="66"/>
@@ -13364,7 +13056,7 @@
       <c r="G82" s="65"/>
       <c r="K82" s="66"/>
       <c r="O82" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P82" s="102"/>
       <c r="Q82" s="102"/>
@@ -13398,7 +13090,7 @@
       <c r="K83" s="66"/>
       <c r="M83" s="102"/>
       <c r="P83" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q83" s="102"/>
       <c r="R83" s="102"/>
@@ -13412,7 +13104,7 @@
         <v>96</v>
       </c>
       <c r="AA83" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB83" s="102"/>
       <c r="AC83" s="102"/>
@@ -13431,7 +13123,7 @@
       <c r="K84" s="66"/>
       <c r="M84" s="102"/>
       <c r="P84" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q84" s="102"/>
       <c r="R84" s="102"/>
@@ -13444,8 +13136,8 @@
       <c r="Z84" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA84" s="131" t="s">
-        <v>287</v>
+      <c r="AA84" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB84" s="102"/>
       <c r="AC84" s="102"/>
@@ -13464,7 +13156,7 @@
       <c r="K85" s="66"/>
       <c r="M85" s="102"/>
       <c r="P85" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q85" s="102"/>
       <c r="R85" s="102"/>
@@ -13478,7 +13170,7 @@
         <v>96</v>
       </c>
       <c r="AA85" s="103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB85" s="102"/>
       <c r="AC85" s="102"/>
@@ -13497,7 +13189,7 @@
       <c r="K86" s="66"/>
       <c r="M86" s="102"/>
       <c r="P86" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q86" s="102"/>
       <c r="R86" s="102"/>
@@ -13508,7 +13200,7 @@
       <c r="W86" s="102"/>
       <c r="X86" s="102"/>
       <c r="Z86" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA86" s="102"/>
       <c r="AB86" s="102"/>
@@ -13520,7 +13212,7 @@
       <c r="AM86" s="102"/>
       <c r="AN86" s="104"/>
       <c r="AO86" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV86" s="66"/>
     </row>
@@ -13546,7 +13238,7 @@
         <v>96</v>
       </c>
       <c r="AA87" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB87" s="102"/>
       <c r="AC87" s="102"/>
@@ -13556,7 +13248,7 @@
       <c r="AJ87" s="102"/>
       <c r="AK87" s="104"/>
       <c r="AO87" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV87" s="66"/>
     </row>
@@ -13567,36 +13259,36 @@
       <c r="G88" s="65"/>
       <c r="K88" s="66"/>
       <c r="M88" s="102"/>
-      <c r="P88" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q88" s="133"/>
-      <c r="R88" s="133"/>
-      <c r="S88" s="133"/>
-      <c r="T88" s="133"/>
-      <c r="U88" s="133"/>
-      <c r="V88" s="133"/>
-      <c r="W88" s="133"/>
-      <c r="X88" s="133"/>
-      <c r="Y88" s="133"/>
-      <c r="Z88" s="133" t="s">
+      <c r="P88" s="132" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q88" s="132"/>
+      <c r="R88" s="132"/>
+      <c r="S88" s="132"/>
+      <c r="T88" s="132"/>
+      <c r="U88" s="132"/>
+      <c r="V88" s="132"/>
+      <c r="W88" s="132"/>
+      <c r="X88" s="132"/>
+      <c r="Y88" s="132"/>
+      <c r="Z88" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA88" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB88" s="134"/>
-      <c r="AC88" s="133"/>
-      <c r="AD88" s="133"/>
-      <c r="AE88" s="134"/>
-      <c r="AF88" s="134"/>
-      <c r="AG88" s="134"/>
+      <c r="AA88" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB88" s="133"/>
+      <c r="AC88" s="132"/>
+      <c r="AD88" s="132"/>
+      <c r="AE88" s="133"/>
+      <c r="AF88" s="133"/>
+      <c r="AG88" s="133"/>
       <c r="AH88" s="102"/>
       <c r="AI88" s="102"/>
       <c r="AJ88" s="102"/>
       <c r="AK88" s="104"/>
       <c r="AO88" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV88" s="66"/>
     </row>
@@ -13607,36 +13299,36 @@
       <c r="G89" s="65"/>
       <c r="K89" s="66"/>
       <c r="M89" s="102"/>
-      <c r="P89" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q89" s="133"/>
-      <c r="R89" s="133"/>
-      <c r="S89" s="133"/>
-      <c r="T89" s="133"/>
-      <c r="U89" s="133"/>
-      <c r="V89" s="133"/>
-      <c r="W89" s="133"/>
-      <c r="X89" s="133"/>
-      <c r="Y89" s="133"/>
-      <c r="Z89" s="133" t="s">
+      <c r="P89" s="132" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q89" s="132"/>
+      <c r="R89" s="132"/>
+      <c r="S89" s="132"/>
+      <c r="T89" s="132"/>
+      <c r="U89" s="132"/>
+      <c r="V89" s="132"/>
+      <c r="W89" s="132"/>
+      <c r="X89" s="132"/>
+      <c r="Y89" s="132"/>
+      <c r="Z89" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA89" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB89" s="134"/>
-      <c r="AC89" s="133"/>
-      <c r="AD89" s="133"/>
-      <c r="AE89" s="134"/>
-      <c r="AF89" s="134"/>
-      <c r="AG89" s="134"/>
+      <c r="AA89" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB89" s="133"/>
+      <c r="AC89" s="132"/>
+      <c r="AD89" s="132"/>
+      <c r="AE89" s="133"/>
+      <c r="AF89" s="133"/>
+      <c r="AG89" s="133"/>
       <c r="AH89" s="102"/>
       <c r="AI89" s="102"/>
       <c r="AJ89" s="102"/>
       <c r="AK89" s="104"/>
       <c r="AO89" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV89" s="66"/>
     </row>
@@ -13647,36 +13339,36 @@
       <c r="G90" s="65"/>
       <c r="K90" s="66"/>
       <c r="M90" s="102"/>
-      <c r="P90" s="133" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q90" s="133"/>
-      <c r="R90" s="133"/>
-      <c r="S90" s="133"/>
-      <c r="T90" s="133"/>
-      <c r="U90" s="133"/>
-      <c r="V90" s="133"/>
-      <c r="W90" s="133"/>
-      <c r="X90" s="133"/>
-      <c r="Y90" s="133"/>
-      <c r="Z90" s="133" t="s">
+      <c r="P90" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q90" s="132"/>
+      <c r="R90" s="132"/>
+      <c r="S90" s="132"/>
+      <c r="T90" s="132"/>
+      <c r="U90" s="132"/>
+      <c r="V90" s="132"/>
+      <c r="W90" s="132"/>
+      <c r="X90" s="132"/>
+      <c r="Y90" s="132"/>
+      <c r="Z90" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA90" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB90" s="134"/>
-      <c r="AC90" s="133"/>
-      <c r="AD90" s="133"/>
-      <c r="AE90" s="134"/>
-      <c r="AF90" s="134"/>
-      <c r="AG90" s="134"/>
+      <c r="AA90" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB90" s="133"/>
+      <c r="AC90" s="132"/>
+      <c r="AD90" s="132"/>
+      <c r="AE90" s="133"/>
+      <c r="AF90" s="133"/>
+      <c r="AG90" s="133"/>
       <c r="AH90" s="102"/>
       <c r="AI90" s="102"/>
       <c r="AJ90" s="102"/>
       <c r="AK90" s="104"/>
       <c r="AO90" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV90" s="66"/>
     </row>
@@ -13687,36 +13379,36 @@
       <c r="G91" s="65"/>
       <c r="K91" s="66"/>
       <c r="M91" s="102"/>
-      <c r="P91" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q91" s="133"/>
-      <c r="R91" s="133"/>
-      <c r="S91" s="133"/>
-      <c r="T91" s="133"/>
-      <c r="U91" s="133"/>
-      <c r="V91" s="133"/>
-      <c r="W91" s="133"/>
-      <c r="X91" s="133"/>
-      <c r="Y91" s="133"/>
-      <c r="Z91" s="133" t="s">
+      <c r="P91" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q91" s="132"/>
+      <c r="R91" s="132"/>
+      <c r="S91" s="132"/>
+      <c r="T91" s="132"/>
+      <c r="U91" s="132"/>
+      <c r="V91" s="132"/>
+      <c r="W91" s="132"/>
+      <c r="X91" s="132"/>
+      <c r="Y91" s="132"/>
+      <c r="Z91" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA91" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB91" s="134"/>
-      <c r="AC91" s="133"/>
-      <c r="AD91" s="133"/>
-      <c r="AE91" s="134"/>
-      <c r="AF91" s="134"/>
-      <c r="AG91" s="134"/>
+      <c r="AA91" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB91" s="133"/>
+      <c r="AC91" s="132"/>
+      <c r="AD91" s="132"/>
+      <c r="AE91" s="133"/>
+      <c r="AF91" s="133"/>
+      <c r="AG91" s="133"/>
       <c r="AH91" s="102"/>
       <c r="AI91" s="102"/>
       <c r="AJ91" s="102"/>
       <c r="AK91" s="104"/>
       <c r="AO91" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV91" s="66"/>
     </row>
@@ -13727,36 +13419,36 @@
       <c r="G92" s="65"/>
       <c r="K92" s="66"/>
       <c r="M92" s="102"/>
-      <c r="P92" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q92" s="133"/>
-      <c r="R92" s="133"/>
-      <c r="S92" s="133"/>
-      <c r="T92" s="133"/>
-      <c r="U92" s="133"/>
-      <c r="V92" s="133"/>
-      <c r="W92" s="133"/>
-      <c r="X92" s="133"/>
-      <c r="Y92" s="133"/>
-      <c r="Z92" s="133" t="s">
+      <c r="P92" s="132" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q92" s="132"/>
+      <c r="R92" s="132"/>
+      <c r="S92" s="132"/>
+      <c r="T92" s="132"/>
+      <c r="U92" s="132"/>
+      <c r="V92" s="132"/>
+      <c r="W92" s="132"/>
+      <c r="X92" s="132"/>
+      <c r="Y92" s="132"/>
+      <c r="Z92" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA92" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB92" s="134"/>
-      <c r="AC92" s="133"/>
-      <c r="AD92" s="133"/>
-      <c r="AE92" s="134"/>
-      <c r="AF92" s="134"/>
-      <c r="AG92" s="134"/>
+      <c r="AA92" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB92" s="133"/>
+      <c r="AC92" s="132"/>
+      <c r="AD92" s="132"/>
+      <c r="AE92" s="133"/>
+      <c r="AF92" s="133"/>
+      <c r="AG92" s="133"/>
       <c r="AH92" s="102"/>
       <c r="AI92" s="102"/>
       <c r="AJ92" s="102"/>
       <c r="AK92" s="104"/>
       <c r="AO92" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV92" s="66"/>
     </row>
@@ -13779,7 +13471,7 @@
       <c r="G94" s="65"/>
       <c r="K94" s="66"/>
       <c r="O94" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL94" s="102"/>
       <c r="AM94" s="102"/>
@@ -13793,7 +13485,7 @@
       <c r="G95" s="65"/>
       <c r="K95" s="66"/>
       <c r="P95" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL95" s="102"/>
       <c r="AM95" s="102"/>
@@ -13807,7 +13499,7 @@
       <c r="G96" s="65"/>
       <c r="K96" s="66"/>
       <c r="P96" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL96" s="102"/>
       <c r="AM96" s="102"/>
@@ -13821,7 +13513,7 @@
       <c r="G97" s="65"/>
       <c r="K97" s="66"/>
       <c r="P97" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL97" s="102"/>
       <c r="AM97" s="102"/>
@@ -13835,7 +13527,7 @@
       <c r="G98" s="65"/>
       <c r="K98" s="66"/>
       <c r="P98" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL98" s="102"/>
       <c r="AM98" s="102"/>
@@ -13875,7 +13567,7 @@
       <c r="G101" s="65"/>
       <c r="K101" s="66"/>
       <c r="P101" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL101" s="102"/>
       <c r="AM101" s="102"/>
@@ -13889,7 +13581,7 @@
       <c r="G102" s="65"/>
       <c r="K102" s="66"/>
       <c r="P102" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL102" s="102"/>
       <c r="AM102" s="102"/>
@@ -13958,7 +13650,7 @@
       <c r="K104" s="66"/>
       <c r="L104" s="98"/>
       <c r="M104" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V104" s="98"/>
       <c r="W104" s="98"/>
@@ -13995,7 +13687,7 @@
       <c r="G105" s="65"/>
       <c r="L105" s="65"/>
       <c r="N105" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AV105" s="66"/>
     </row>
@@ -14006,7 +13698,7 @@
       <c r="G106" s="65"/>
       <c r="K106" s="66"/>
       <c r="O106" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P106" s="102"/>
       <c r="Q106" s="102"/>
@@ -14026,7 +13718,7 @@
       <c r="G107" s="65"/>
       <c r="K107" s="66"/>
       <c r="P107" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q107" s="102"/>
       <c r="R107" s="102"/>
@@ -14047,7 +13739,7 @@
       <c r="G108" s="65"/>
       <c r="K108" s="66"/>
       <c r="P108" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q108" s="102"/>
       <c r="R108" s="102"/>
@@ -14068,7 +13760,7 @@
       <c r="G109" s="65"/>
       <c r="K109" s="66"/>
       <c r="P109" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q109" s="102"/>
       <c r="R109" s="102"/>
@@ -14088,7 +13780,7 @@
       <c r="G110" s="65"/>
       <c r="K110" s="66"/>
       <c r="P110" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q110" s="102"/>
       <c r="R110" s="102"/>
@@ -14108,7 +13800,7 @@
       <c r="G111" s="65"/>
       <c r="K111" s="66"/>
       <c r="P111" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q111" s="102"/>
       <c r="R111" s="102"/>
@@ -14147,7 +13839,7 @@
       <c r="G113" s="65"/>
       <c r="K113" s="66"/>
       <c r="O113" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P113" s="102"/>
       <c r="Q113" s="102"/>
@@ -14167,7 +13859,7 @@
       <c r="G114" s="65"/>
       <c r="K114" s="66"/>
       <c r="P114" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q114" s="102"/>
       <c r="R114" s="102"/>
@@ -14187,7 +13879,7 @@
       <c r="G115" s="65"/>
       <c r="K115" s="66"/>
       <c r="P115" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q115" s="102"/>
       <c r="R115" s="102"/>
@@ -14209,7 +13901,7 @@
       <c r="K116" s="66"/>
       <c r="P116" s="102"/>
       <c r="Q116" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R116" s="102"/>
       <c r="S116" s="102"/>
@@ -14223,7 +13915,7 @@
         <v>96</v>
       </c>
       <c r="AA116" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM116" s="102"/>
       <c r="AV116" s="66"/>
@@ -14236,7 +13928,7 @@
       <c r="K117" s="66"/>
       <c r="P117" s="102"/>
       <c r="Q117" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R117" s="102"/>
       <c r="S117" s="102"/>
@@ -14250,7 +13942,7 @@
         <v>96</v>
       </c>
       <c r="AA117" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV117" s="66"/>
     </row>
@@ -14259,9 +13951,9 @@
       <c r="C118" s="65"/>
       <c r="F118" s="66"/>
       <c r="G118" s="65"/>
-      <c r="L118" s="116"/>
+      <c r="L118" s="115"/>
       <c r="P118" s="102" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q118" s="102"/>
       <c r="R118" s="102"/>
@@ -14286,10 +13978,10 @@
       <c r="AK118" s="102"/>
       <c r="AL118" s="102"/>
       <c r="AM118" s="102"/>
-      <c r="AN118" s="117"/>
-      <c r="AO118" s="117"/>
-      <c r="AP118" s="117"/>
-      <c r="AQ118" s="117"/>
+      <c r="AN118" s="116"/>
+      <c r="AO118" s="116"/>
+      <c r="AP118" s="116"/>
+      <c r="AQ118" s="116"/>
       <c r="AV118" s="66"/>
     </row>
     <row r="119" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14297,10 +13989,10 @@
       <c r="C119" s="65"/>
       <c r="F119" s="66"/>
       <c r="G119" s="65"/>
-      <c r="L119" s="116"/>
+      <c r="L119" s="115"/>
       <c r="P119" s="102"/>
       <c r="Q119" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R119" s="102"/>
       <c r="S119" s="102"/>
@@ -14314,7 +14006,7 @@
         <v>96</v>
       </c>
       <c r="AA119" s="102" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AC119" s="102"/>
       <c r="AD119" s="102"/>
@@ -14327,10 +14019,10 @@
       <c r="AK119" s="102"/>
       <c r="AL119" s="102"/>
       <c r="AM119" s="102"/>
-      <c r="AN119" s="117"/>
-      <c r="AO119" s="117"/>
-      <c r="AP119" s="117"/>
-      <c r="AQ119" s="117"/>
+      <c r="AN119" s="116"/>
+      <c r="AO119" s="116"/>
+      <c r="AP119" s="116"/>
+      <c r="AQ119" s="116"/>
       <c r="AV119" s="66"/>
     </row>
     <row r="120" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14338,10 +14030,10 @@
       <c r="C120" s="65"/>
       <c r="F120" s="66"/>
       <c r="G120" s="65"/>
-      <c r="L120" s="116"/>
+      <c r="L120" s="115"/>
       <c r="P120" s="102"/>
       <c r="Q120" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R120" s="102"/>
       <c r="S120" s="102"/>
@@ -14355,7 +14047,7 @@
         <v>96</v>
       </c>
       <c r="AA120" s="102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AC120" s="102"/>
       <c r="AD120" s="102"/>
@@ -14368,10 +14060,10 @@
       <c r="AK120" s="102"/>
       <c r="AL120" s="102"/>
       <c r="AM120" s="102"/>
-      <c r="AN120" s="117"/>
-      <c r="AO120" s="117"/>
-      <c r="AP120" s="117"/>
-      <c r="AQ120" s="117"/>
+      <c r="AN120" s="116"/>
+      <c r="AO120" s="116"/>
+      <c r="AP120" s="116"/>
+      <c r="AQ120" s="116"/>
       <c r="AV120" s="66"/>
     </row>
     <row r="121" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14379,10 +14071,10 @@
       <c r="C121" s="65"/>
       <c r="F121" s="66"/>
       <c r="G121" s="65"/>
-      <c r="L121" s="116"/>
+      <c r="L121" s="115"/>
       <c r="P121" s="102"/>
       <c r="Q121" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R121" s="102"/>
       <c r="S121" s="102"/>
@@ -14396,7 +14088,7 @@
         <v>96</v>
       </c>
       <c r="AA121" s="102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AC121" s="102"/>
       <c r="AD121" s="102"/>
@@ -14409,10 +14101,10 @@
       <c r="AK121" s="102"/>
       <c r="AL121" s="102"/>
       <c r="AM121" s="102"/>
-      <c r="AN121" s="117"/>
-      <c r="AO121" s="117"/>
-      <c r="AP121" s="117"/>
-      <c r="AQ121" s="117"/>
+      <c r="AN121" s="116"/>
+      <c r="AO121" s="116"/>
+      <c r="AP121" s="116"/>
+      <c r="AQ121" s="116"/>
       <c r="AV121" s="66"/>
     </row>
     <row r="122" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14420,10 +14112,10 @@
       <c r="C122" s="65"/>
       <c r="F122" s="66"/>
       <c r="G122" s="65"/>
-      <c r="L122" s="116"/>
+      <c r="L122" s="115"/>
       <c r="P122" s="102"/>
       <c r="Q122" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R122" s="102"/>
       <c r="S122" s="102"/>
@@ -14437,7 +14129,7 @@
         <v>96</v>
       </c>
       <c r="AA122" s="102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC122" s="102"/>
       <c r="AD122" s="102"/>
@@ -14450,10 +14142,10 @@
       <c r="AK122" s="102"/>
       <c r="AL122" s="102"/>
       <c r="AM122" s="102"/>
-      <c r="AN122" s="117"/>
-      <c r="AO122" s="117"/>
-      <c r="AP122" s="117"/>
-      <c r="AQ122" s="117"/>
+      <c r="AN122" s="116"/>
+      <c r="AO122" s="116"/>
+      <c r="AP122" s="116"/>
+      <c r="AQ122" s="116"/>
       <c r="AV122" s="66"/>
     </row>
     <row r="123" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14461,10 +14153,10 @@
       <c r="C123" s="65"/>
       <c r="F123" s="66"/>
       <c r="G123" s="65"/>
-      <c r="L123" s="116"/>
+      <c r="L123" s="115"/>
       <c r="P123" s="102"/>
       <c r="Q123" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R123" s="102"/>
       <c r="S123" s="102"/>
@@ -14478,7 +14170,7 @@
         <v>96</v>
       </c>
       <c r="AA123" s="102" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AC123" s="102"/>
       <c r="AD123" s="102"/>
@@ -14491,10 +14183,10 @@
       <c r="AK123" s="102"/>
       <c r="AL123" s="102"/>
       <c r="AM123" s="102"/>
-      <c r="AN123" s="117"/>
-      <c r="AO123" s="117"/>
-      <c r="AP123" s="117"/>
-      <c r="AQ123" s="117"/>
+      <c r="AN123" s="116"/>
+      <c r="AO123" s="116"/>
+      <c r="AP123" s="116"/>
+      <c r="AQ123" s="116"/>
       <c r="AV123" s="66"/>
     </row>
     <row r="124" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14504,7 +14196,7 @@
       <c r="G124" s="65"/>
       <c r="K124" s="66"/>
       <c r="P124" s="102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q124" s="102"/>
       <c r="R124" s="102"/>
@@ -14526,7 +14218,7 @@
       <c r="K125" s="66"/>
       <c r="P125" s="102"/>
       <c r="Q125" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R125" s="102"/>
       <c r="S125" s="102"/>
@@ -14540,7 +14232,7 @@
         <v>96</v>
       </c>
       <c r="AA125" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM125" s="102"/>
       <c r="AV125" s="66"/>
@@ -14553,7 +14245,7 @@
       <c r="K126" s="66"/>
       <c r="P126" s="102"/>
       <c r="Q126" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R126" s="102"/>
       <c r="S126" s="102"/>
@@ -14567,7 +14259,7 @@
         <v>96</v>
       </c>
       <c r="AA126" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM126" s="102"/>
       <c r="AV126" s="66"/>
@@ -14580,7 +14272,7 @@
       <c r="K127" s="66"/>
       <c r="P127" s="102"/>
       <c r="Q127" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R127" s="102"/>
       <c r="S127" s="102"/>
@@ -14594,7 +14286,7 @@
         <v>96</v>
       </c>
       <c r="AA127" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM127" s="102"/>
       <c r="AV127" s="66"/>
@@ -14607,7 +14299,7 @@
       <c r="K128" s="66"/>
       <c r="P128" s="102"/>
       <c r="Q128" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R128" s="102"/>
       <c r="S128" s="102"/>
@@ -14621,7 +14313,7 @@
         <v>96</v>
       </c>
       <c r="AA128" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM128" s="102"/>
       <c r="AV128" s="66"/>
@@ -14634,7 +14326,7 @@
       <c r="K129" s="66"/>
       <c r="P129" s="102"/>
       <c r="Q129" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R129" s="102"/>
       <c r="S129" s="102"/>
@@ -14648,7 +14340,7 @@
         <v>96</v>
       </c>
       <c r="AA129" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM129" s="102"/>
       <c r="AV129" s="66"/>
@@ -14660,7 +14352,7 @@
       <c r="G130" s="65"/>
       <c r="K130" s="66"/>
       <c r="P130" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q130" s="102"/>
       <c r="R130" s="102"/>
@@ -14682,7 +14374,7 @@
       <c r="K131" s="66"/>
       <c r="P131" s="102"/>
       <c r="Q131" s="102" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R131" s="102"/>
       <c r="S131" s="102"/>
@@ -14696,7 +14388,7 @@
         <v>96</v>
       </c>
       <c r="AA131" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM131" s="102"/>
       <c r="AV131" s="66"/>
@@ -14742,7 +14434,7 @@
       <c r="G133" s="65"/>
       <c r="K133" s="66"/>
       <c r="O133" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P133" s="102"/>
       <c r="Q133" s="102"/>
@@ -14776,7 +14468,7 @@
       <c r="K134" s="66"/>
       <c r="N134" s="102"/>
       <c r="P134" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q134" s="102"/>
       <c r="R134" s="102"/>
@@ -14790,7 +14482,7 @@
         <v>96</v>
       </c>
       <c r="AA134" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB134" s="102"/>
       <c r="AC134" s="102"/>
@@ -14809,7 +14501,7 @@
       <c r="K135" s="66"/>
       <c r="N135" s="102"/>
       <c r="P135" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q135" s="102"/>
       <c r="R135" s="102"/>
@@ -14822,8 +14514,8 @@
       <c r="Z135" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA135" s="131" t="s">
-        <v>287</v>
+      <c r="AA135" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB135" s="102"/>
       <c r="AC135" s="102"/>
@@ -14842,7 +14534,7 @@
       <c r="K136" s="66"/>
       <c r="N136" s="102"/>
       <c r="P136" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q136" s="102"/>
       <c r="R136" s="102"/>
@@ -14856,7 +14548,7 @@
         <v>96</v>
       </c>
       <c r="AA136" s="103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AB136" s="102"/>
       <c r="AC136" s="102"/>
@@ -14875,7 +14567,7 @@
       <c r="K137" s="66"/>
       <c r="N137" s="102"/>
       <c r="P137" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q137" s="102"/>
       <c r="R137" s="102"/>
@@ -14886,7 +14578,7 @@
       <c r="W137" s="102"/>
       <c r="X137" s="102"/>
       <c r="Z137" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA137" s="102"/>
       <c r="AB137" s="102"/>
@@ -14897,7 +14589,7 @@
       <c r="AL137" s="102"/>
       <c r="AM137" s="102"/>
       <c r="AO137" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV137" s="66"/>
     </row>
@@ -14923,7 +14615,7 @@
         <v>96</v>
       </c>
       <c r="AA138" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB138" s="102"/>
       <c r="AC138" s="102"/>
@@ -14933,7 +14625,7 @@
       <c r="AJ138" s="102"/>
       <c r="AK138" s="104"/>
       <c r="AO138" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV138" s="66"/>
     </row>
@@ -14945,7 +14637,7 @@
       <c r="K139" s="66"/>
       <c r="N139" s="102"/>
       <c r="P139" s="102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q139" s="102"/>
       <c r="R139" s="102"/>
@@ -14959,7 +14651,7 @@
         <v>96</v>
       </c>
       <c r="AA139" s="102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB139" s="102"/>
       <c r="AC139" s="102"/>
@@ -14969,7 +14661,7 @@
       <c r="AJ139" s="102"/>
       <c r="AK139" s="104"/>
       <c r="AO139" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV139" s="66"/>
     </row>
@@ -14981,7 +14673,7 @@
       <c r="K140" s="66"/>
       <c r="N140" s="102"/>
       <c r="P140" s="102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q140" s="102"/>
       <c r="R140" s="102"/>
@@ -14995,7 +14687,7 @@
         <v>96</v>
       </c>
       <c r="AA140" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AB140" s="102"/>
       <c r="AC140" s="102"/>
@@ -15005,7 +14697,7 @@
       <c r="AJ140" s="102"/>
       <c r="AK140" s="104"/>
       <c r="AO140" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV140" s="66"/>
     </row>
@@ -15017,7 +14709,7 @@
       <c r="K141" s="66"/>
       <c r="N141" s="102"/>
       <c r="P141" s="102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q141" s="102"/>
       <c r="R141" s="102"/>
@@ -15031,7 +14723,7 @@
         <v>96</v>
       </c>
       <c r="AA141" s="102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB141" s="102"/>
       <c r="AC141" s="102"/>
@@ -15041,7 +14733,7 @@
       <c r="AJ141" s="102"/>
       <c r="AK141" s="104"/>
       <c r="AO141" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV141" s="66"/>
     </row>
@@ -15053,7 +14745,7 @@
       <c r="K142" s="66"/>
       <c r="N142" s="102"/>
       <c r="P142" s="102" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q142" s="102"/>
       <c r="R142" s="102"/>
@@ -15064,7 +14756,7 @@
       <c r="W142" s="102"/>
       <c r="X142" s="102"/>
       <c r="Z142" s="102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AA142" s="102"/>
       <c r="AB142" s="102"/>
@@ -15075,7 +14767,7 @@
       <c r="AJ142" s="102"/>
       <c r="AK142" s="104"/>
       <c r="AO142" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV142" s="66"/>
     </row>
@@ -15098,7 +14790,7 @@
       <c r="G144" s="65"/>
       <c r="K144" s="66"/>
       <c r="O144" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL144" s="102"/>
       <c r="AM144" s="102"/>
@@ -15112,7 +14804,7 @@
       <c r="G145" s="65"/>
       <c r="K145" s="66"/>
       <c r="P145" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL145" s="102"/>
       <c r="AM145" s="102"/>
@@ -15126,7 +14818,7 @@
       <c r="G146" s="65"/>
       <c r="K146" s="66"/>
       <c r="P146" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL146" s="102"/>
       <c r="AM146" s="102"/>
@@ -15140,7 +14832,7 @@
       <c r="G147" s="65"/>
       <c r="K147" s="66"/>
       <c r="P147" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL147" s="102"/>
       <c r="AM147" s="102"/>
@@ -15154,7 +14846,7 @@
       <c r="G148" s="65"/>
       <c r="K148" s="66"/>
       <c r="P148" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL148" s="102"/>
       <c r="AM148" s="102"/>
@@ -15194,7 +14886,7 @@
       <c r="G151" s="65"/>
       <c r="K151" s="66"/>
       <c r="P151" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL151" s="102"/>
       <c r="AM151" s="102"/>
@@ -15208,7 +14900,7 @@
       <c r="G152" s="65"/>
       <c r="K152" s="66"/>
       <c r="P152" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL152" s="102"/>
       <c r="AM152" s="102"/>
@@ -15230,7 +14922,7 @@
       <c r="G154" s="65"/>
       <c r="L154" s="65"/>
       <c r="N154" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AV154" s="66"/>
     </row>
@@ -15241,7 +14933,7 @@
       <c r="G155" s="65"/>
       <c r="K155" s="66"/>
       <c r="O155" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P155" s="102"/>
       <c r="Q155" s="102"/>
@@ -15261,7 +14953,7 @@
       <c r="G156" s="65"/>
       <c r="K156" s="66"/>
       <c r="P156" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q156" s="102"/>
       <c r="R156" s="102"/>
@@ -15282,7 +14974,7 @@
       <c r="G157" s="65"/>
       <c r="K157" s="66"/>
       <c r="P157" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q157" s="102"/>
       <c r="R157" s="102"/>
@@ -15303,7 +14995,7 @@
       <c r="G158" s="65"/>
       <c r="K158" s="66"/>
       <c r="P158" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q158" s="102"/>
       <c r="R158" s="102"/>
@@ -15323,7 +15015,7 @@
       <c r="G159" s="65"/>
       <c r="K159" s="66"/>
       <c r="P159" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q159" s="102"/>
       <c r="R159" s="102"/>
@@ -15343,7 +15035,7 @@
       <c r="G160" s="65"/>
       <c r="K160" s="66"/>
       <c r="P160" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q160" s="102"/>
       <c r="R160" s="102"/>
@@ -15382,7 +15074,7 @@
       <c r="G162" s="65"/>
       <c r="K162" s="66"/>
       <c r="O162" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P162" s="102"/>
       <c r="Q162" s="102"/>
@@ -15402,7 +15094,7 @@
       <c r="G163" s="65"/>
       <c r="K163" s="66"/>
       <c r="P163" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q163" s="102"/>
       <c r="R163" s="102"/>
@@ -15422,7 +15114,7 @@
       <c r="G164" s="65"/>
       <c r="K164" s="66"/>
       <c r="P164" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q164" s="102"/>
       <c r="R164" s="102"/>
@@ -15444,7 +15136,7 @@
       <c r="K165" s="66"/>
       <c r="P165" s="102"/>
       <c r="Q165" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R165" s="102"/>
       <c r="S165" s="102"/>
@@ -15458,7 +15150,7 @@
         <v>96</v>
       </c>
       <c r="AA165" s="102" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM165" s="102"/>
       <c r="AV165" s="66"/>
@@ -15471,7 +15163,7 @@
       <c r="K166" s="66"/>
       <c r="P166" s="102"/>
       <c r="Q166" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R166" s="102"/>
       <c r="S166" s="102"/>
@@ -15485,7 +15177,7 @@
         <v>96</v>
       </c>
       <c r="AA166" s="102" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AV166" s="66"/>
     </row>
@@ -15496,7 +15188,7 @@
       <c r="G167" s="65"/>
       <c r="K167" s="66"/>
       <c r="P167" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q167" s="102"/>
       <c r="R167" s="102"/>
@@ -15518,7 +15210,7 @@
       <c r="K168" s="66"/>
       <c r="P168" s="102"/>
       <c r="Q168" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R168" s="102"/>
       <c r="S168" s="102"/>
@@ -15532,7 +15224,7 @@
         <v>96</v>
       </c>
       <c r="AA168" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM168" s="102"/>
       <c r="AV168" s="66"/>
@@ -15578,7 +15270,7 @@
       <c r="G170" s="65"/>
       <c r="K170" s="66"/>
       <c r="O170" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P170" s="102"/>
       <c r="Q170" s="102"/>
@@ -15612,7 +15304,7 @@
       <c r="K171" s="66"/>
       <c r="N171" s="102"/>
       <c r="P171" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q171" s="102"/>
       <c r="R171" s="102"/>
@@ -15626,7 +15318,7 @@
         <v>96</v>
       </c>
       <c r="AA171" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB171" s="102"/>
       <c r="AC171" s="102"/>
@@ -15645,7 +15337,7 @@
       <c r="K172" s="66"/>
       <c r="N172" s="102"/>
       <c r="P172" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q172" s="102"/>
       <c r="R172" s="102"/>
@@ -15658,8 +15350,8 @@
       <c r="Z172" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA172" s="131" t="s">
-        <v>287</v>
+      <c r="AA172" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB172" s="102"/>
       <c r="AC172" s="102"/>
@@ -15678,7 +15370,7 @@
       <c r="K173" s="66"/>
       <c r="N173" s="102"/>
       <c r="P173" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q173" s="102"/>
       <c r="R173" s="102"/>
@@ -15692,7 +15384,7 @@
         <v>96</v>
       </c>
       <c r="AA173" s="103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AB173" s="102"/>
       <c r="AC173" s="102"/>
@@ -15711,7 +15403,7 @@
       <c r="K174" s="66"/>
       <c r="N174" s="102"/>
       <c r="P174" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q174" s="102"/>
       <c r="R174" s="102"/>
@@ -15722,7 +15414,7 @@
       <c r="W174" s="102"/>
       <c r="X174" s="102"/>
       <c r="Z174" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA174" s="102"/>
       <c r="AB174" s="102"/>
@@ -15733,7 +15425,7 @@
       <c r="AL174" s="102"/>
       <c r="AM174" s="102"/>
       <c r="AO174" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV174" s="66"/>
     </row>
@@ -15759,7 +15451,7 @@
         <v>96</v>
       </c>
       <c r="AA175" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB175" s="102"/>
       <c r="AC175" s="102"/>
@@ -15769,7 +15461,7 @@
       <c r="AJ175" s="102"/>
       <c r="AK175" s="104"/>
       <c r="AO175" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV175" s="66"/>
     </row>
@@ -15780,36 +15472,36 @@
       <c r="G176" s="65"/>
       <c r="K176" s="66"/>
       <c r="M176" s="102"/>
-      <c r="P176" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q176" s="133"/>
-      <c r="R176" s="133"/>
-      <c r="S176" s="133"/>
-      <c r="T176" s="133"/>
-      <c r="U176" s="133"/>
-      <c r="V176" s="133"/>
-      <c r="W176" s="133"/>
-      <c r="X176" s="133"/>
-      <c r="Y176" s="133"/>
-      <c r="Z176" s="133" t="s">
+      <c r="P176" s="132" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q176" s="132"/>
+      <c r="R176" s="132"/>
+      <c r="S176" s="132"/>
+      <c r="T176" s="132"/>
+      <c r="U176" s="132"/>
+      <c r="V176" s="132"/>
+      <c r="W176" s="132"/>
+      <c r="X176" s="132"/>
+      <c r="Y176" s="132"/>
+      <c r="Z176" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA176" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB176" s="134"/>
-      <c r="AC176" s="133"/>
-      <c r="AD176" s="133"/>
-      <c r="AE176" s="134"/>
-      <c r="AF176" s="134"/>
-      <c r="AG176" s="134"/>
+      <c r="AA176" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB176" s="133"/>
+      <c r="AC176" s="132"/>
+      <c r="AD176" s="132"/>
+      <c r="AE176" s="133"/>
+      <c r="AF176" s="133"/>
+      <c r="AG176" s="133"/>
       <c r="AH176" s="102"/>
       <c r="AI176" s="102"/>
       <c r="AJ176" s="102"/>
       <c r="AK176" s="104"/>
       <c r="AO176" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV176" s="66"/>
     </row>
@@ -15820,36 +15512,36 @@
       <c r="G177" s="65"/>
       <c r="K177" s="66"/>
       <c r="M177" s="102"/>
-      <c r="P177" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q177" s="133"/>
-      <c r="R177" s="133"/>
-      <c r="S177" s="133"/>
-      <c r="T177" s="133"/>
-      <c r="U177" s="133"/>
-      <c r="V177" s="133"/>
-      <c r="W177" s="133"/>
-      <c r="X177" s="133"/>
-      <c r="Y177" s="133"/>
-      <c r="Z177" s="133" t="s">
+      <c r="P177" s="132" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q177" s="132"/>
+      <c r="R177" s="132"/>
+      <c r="S177" s="132"/>
+      <c r="T177" s="132"/>
+      <c r="U177" s="132"/>
+      <c r="V177" s="132"/>
+      <c r="W177" s="132"/>
+      <c r="X177" s="132"/>
+      <c r="Y177" s="132"/>
+      <c r="Z177" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA177" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB177" s="134"/>
-      <c r="AC177" s="133"/>
-      <c r="AD177" s="133"/>
-      <c r="AE177" s="134"/>
-      <c r="AF177" s="134"/>
-      <c r="AG177" s="134"/>
+      <c r="AA177" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB177" s="133"/>
+      <c r="AC177" s="132"/>
+      <c r="AD177" s="132"/>
+      <c r="AE177" s="133"/>
+      <c r="AF177" s="133"/>
+      <c r="AG177" s="133"/>
       <c r="AH177" s="102"/>
       <c r="AI177" s="102"/>
       <c r="AJ177" s="102"/>
       <c r="AK177" s="104"/>
       <c r="AO177" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV177" s="66"/>
     </row>
@@ -15860,36 +15552,36 @@
       <c r="G178" s="65"/>
       <c r="K178" s="66"/>
       <c r="M178" s="102"/>
-      <c r="P178" s="133" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q178" s="133"/>
-      <c r="R178" s="133"/>
-      <c r="S178" s="133"/>
-      <c r="T178" s="133"/>
-      <c r="U178" s="133"/>
-      <c r="V178" s="133"/>
-      <c r="W178" s="133"/>
-      <c r="X178" s="133"/>
-      <c r="Y178" s="133"/>
-      <c r="Z178" s="133" t="s">
+      <c r="P178" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q178" s="132"/>
+      <c r="R178" s="132"/>
+      <c r="S178" s="132"/>
+      <c r="T178" s="132"/>
+      <c r="U178" s="132"/>
+      <c r="V178" s="132"/>
+      <c r="W178" s="132"/>
+      <c r="X178" s="132"/>
+      <c r="Y178" s="132"/>
+      <c r="Z178" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA178" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB178" s="134"/>
-      <c r="AC178" s="133"/>
-      <c r="AD178" s="133"/>
-      <c r="AE178" s="134"/>
-      <c r="AF178" s="134"/>
-      <c r="AG178" s="134"/>
+      <c r="AA178" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB178" s="133"/>
+      <c r="AC178" s="132"/>
+      <c r="AD178" s="132"/>
+      <c r="AE178" s="133"/>
+      <c r="AF178" s="133"/>
+      <c r="AG178" s="133"/>
       <c r="AH178" s="102"/>
       <c r="AI178" s="102"/>
       <c r="AJ178" s="102"/>
       <c r="AK178" s="104"/>
       <c r="AO178" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV178" s="66"/>
     </row>
@@ -15900,36 +15592,36 @@
       <c r="G179" s="65"/>
       <c r="K179" s="66"/>
       <c r="M179" s="102"/>
-      <c r="P179" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q179" s="133"/>
-      <c r="R179" s="133"/>
-      <c r="S179" s="133"/>
-      <c r="T179" s="133"/>
-      <c r="U179" s="133"/>
-      <c r="V179" s="133"/>
-      <c r="W179" s="133"/>
-      <c r="X179" s="133"/>
-      <c r="Y179" s="133"/>
-      <c r="Z179" s="133" t="s">
+      <c r="P179" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q179" s="132"/>
+      <c r="R179" s="132"/>
+      <c r="S179" s="132"/>
+      <c r="T179" s="132"/>
+      <c r="U179" s="132"/>
+      <c r="V179" s="132"/>
+      <c r="W179" s="132"/>
+      <c r="X179" s="132"/>
+      <c r="Y179" s="132"/>
+      <c r="Z179" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA179" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB179" s="134"/>
-      <c r="AC179" s="133"/>
-      <c r="AD179" s="133"/>
-      <c r="AE179" s="134"/>
-      <c r="AF179" s="134"/>
-      <c r="AG179" s="134"/>
+      <c r="AA179" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB179" s="133"/>
+      <c r="AC179" s="132"/>
+      <c r="AD179" s="132"/>
+      <c r="AE179" s="133"/>
+      <c r="AF179" s="133"/>
+      <c r="AG179" s="133"/>
       <c r="AH179" s="102"/>
       <c r="AI179" s="102"/>
       <c r="AJ179" s="102"/>
       <c r="AK179" s="104"/>
       <c r="AO179" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV179" s="66"/>
     </row>
@@ -15940,36 +15632,36 @@
       <c r="G180" s="65"/>
       <c r="K180" s="66"/>
       <c r="M180" s="102"/>
-      <c r="P180" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q180" s="133"/>
-      <c r="R180" s="133"/>
-      <c r="S180" s="133"/>
-      <c r="T180" s="133"/>
-      <c r="U180" s="133"/>
-      <c r="V180" s="133"/>
-      <c r="W180" s="133"/>
-      <c r="X180" s="133"/>
-      <c r="Y180" s="133"/>
-      <c r="Z180" s="133" t="s">
+      <c r="P180" s="132" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q180" s="132"/>
+      <c r="R180" s="132"/>
+      <c r="S180" s="132"/>
+      <c r="T180" s="132"/>
+      <c r="U180" s="132"/>
+      <c r="V180" s="132"/>
+      <c r="W180" s="132"/>
+      <c r="X180" s="132"/>
+      <c r="Y180" s="132"/>
+      <c r="Z180" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA180" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB180" s="134"/>
-      <c r="AC180" s="133"/>
-      <c r="AD180" s="133"/>
-      <c r="AE180" s="134"/>
-      <c r="AF180" s="134"/>
-      <c r="AG180" s="134"/>
+      <c r="AA180" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB180" s="133"/>
+      <c r="AC180" s="132"/>
+      <c r="AD180" s="132"/>
+      <c r="AE180" s="133"/>
+      <c r="AF180" s="133"/>
+      <c r="AG180" s="133"/>
       <c r="AH180" s="102"/>
       <c r="AI180" s="102"/>
       <c r="AJ180" s="102"/>
       <c r="AK180" s="104"/>
       <c r="AO180" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV180" s="66"/>
     </row>
@@ -15992,7 +15684,7 @@
       <c r="G182" s="65"/>
       <c r="K182" s="66"/>
       <c r="O182" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL182" s="102"/>
       <c r="AM182" s="102"/>
@@ -16006,7 +15698,7 @@
       <c r="G183" s="65"/>
       <c r="K183" s="66"/>
       <c r="P183" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL183" s="102"/>
       <c r="AM183" s="102"/>
@@ -16020,7 +15712,7 @@
       <c r="G184" s="65"/>
       <c r="K184" s="66"/>
       <c r="P184" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL184" s="102"/>
       <c r="AM184" s="102"/>
@@ -16034,7 +15726,7 @@
       <c r="G185" s="65"/>
       <c r="K185" s="66"/>
       <c r="P185" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL185" s="102"/>
       <c r="AM185" s="102"/>
@@ -16048,7 +15740,7 @@
       <c r="G186" s="65"/>
       <c r="K186" s="66"/>
       <c r="P186" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL186" s="102"/>
       <c r="AM186" s="102"/>
@@ -16088,7 +15780,7 @@
       <c r="G189" s="65"/>
       <c r="K189" s="66"/>
       <c r="P189" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL189" s="102"/>
       <c r="AM189" s="102"/>
@@ -16102,7 +15794,7 @@
       <c r="G190" s="65"/>
       <c r="K190" s="66"/>
       <c r="P190" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL190" s="102"/>
       <c r="AM190" s="102"/>
@@ -16171,7 +15863,7 @@
       <c r="K192" s="66"/>
       <c r="L192" s="98"/>
       <c r="M192" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V192" s="98"/>
       <c r="W192" s="98"/>
@@ -16208,7 +15900,7 @@
       <c r="G193" s="65"/>
       <c r="L193" s="65"/>
       <c r="N193" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AV193" s="66"/>
     </row>
@@ -16219,7 +15911,7 @@
       <c r="G194" s="65"/>
       <c r="K194" s="66"/>
       <c r="O194" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P194" s="102"/>
       <c r="Q194" s="102"/>
@@ -16239,7 +15931,7 @@
       <c r="G195" s="65"/>
       <c r="K195" s="66"/>
       <c r="P195" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q195" s="102"/>
       <c r="R195" s="102"/>
@@ -16260,7 +15952,7 @@
       <c r="G196" s="65"/>
       <c r="K196" s="66"/>
       <c r="P196" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q196" s="102"/>
       <c r="R196" s="102"/>
@@ -16281,7 +15973,7 @@
       <c r="G197" s="65"/>
       <c r="K197" s="66"/>
       <c r="P197" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q197" s="102"/>
       <c r="R197" s="102"/>
@@ -16301,7 +15993,7 @@
       <c r="G198" s="65"/>
       <c r="K198" s="66"/>
       <c r="P198" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q198" s="102"/>
       <c r="R198" s="102"/>
@@ -16321,7 +16013,7 @@
       <c r="G199" s="65"/>
       <c r="K199" s="66"/>
       <c r="P199" s="102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q199" s="102"/>
       <c r="R199" s="102"/>
@@ -16342,7 +16034,7 @@
       <c r="G200" s="65"/>
       <c r="K200" s="66"/>
       <c r="P200" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q200" s="102"/>
       <c r="R200" s="102"/>
@@ -16381,7 +16073,7 @@
       <c r="G202" s="65"/>
       <c r="K202" s="66"/>
       <c r="O202" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P202" s="102"/>
       <c r="Q202" s="102"/>
@@ -16401,7 +16093,7 @@
       <c r="G203" s="65"/>
       <c r="K203" s="66"/>
       <c r="P203" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q203" s="102"/>
       <c r="R203" s="102"/>
@@ -16421,7 +16113,7 @@
       <c r="G204" s="65"/>
       <c r="K204" s="66"/>
       <c r="P204" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q204" s="102"/>
       <c r="R204" s="102"/>
@@ -16443,7 +16135,7 @@
       <c r="K205" s="66"/>
       <c r="P205" s="102"/>
       <c r="Q205" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R205" s="102"/>
       <c r="S205" s="102"/>
@@ -16457,7 +16149,7 @@
         <v>96</v>
       </c>
       <c r="AA205" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM205" s="102"/>
       <c r="AV205" s="66"/>
@@ -16470,7 +16162,7 @@
       <c r="K206" s="66"/>
       <c r="P206" s="102"/>
       <c r="Q206" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R206" s="102"/>
       <c r="S206" s="102"/>
@@ -16484,7 +16176,7 @@
         <v>96</v>
       </c>
       <c r="AA206" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV206" s="66"/>
     </row>
@@ -16493,9 +16185,9 @@
       <c r="C207" s="65"/>
       <c r="F207" s="66"/>
       <c r="G207" s="65"/>
-      <c r="L207" s="116"/>
+      <c r="L207" s="115"/>
       <c r="P207" s="102" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q207" s="102"/>
       <c r="R207" s="102"/>
@@ -16520,10 +16212,10 @@
       <c r="AK207" s="102"/>
       <c r="AL207" s="102"/>
       <c r="AM207" s="102"/>
-      <c r="AN207" s="117"/>
-      <c r="AO207" s="117"/>
-      <c r="AP207" s="117"/>
-      <c r="AQ207" s="117"/>
+      <c r="AN207" s="116"/>
+      <c r="AO207" s="116"/>
+      <c r="AP207" s="116"/>
+      <c r="AQ207" s="116"/>
       <c r="AV207" s="66"/>
     </row>
     <row r="208" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16531,10 +16223,10 @@
       <c r="C208" s="65"/>
       <c r="F208" s="66"/>
       <c r="G208" s="65"/>
-      <c r="L208" s="116"/>
+      <c r="L208" s="115"/>
       <c r="P208" s="102"/>
       <c r="Q208" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R208" s="102"/>
       <c r="S208" s="102"/>
@@ -16548,7 +16240,7 @@
         <v>96</v>
       </c>
       <c r="AA208" s="102" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AC208" s="102"/>
       <c r="AD208" s="102"/>
@@ -16561,10 +16253,10 @@
       <c r="AK208" s="102"/>
       <c r="AL208" s="102"/>
       <c r="AM208" s="102"/>
-      <c r="AN208" s="117"/>
-      <c r="AO208" s="117"/>
-      <c r="AP208" s="117"/>
-      <c r="AQ208" s="117"/>
+      <c r="AN208" s="116"/>
+      <c r="AO208" s="116"/>
+      <c r="AP208" s="116"/>
+      <c r="AQ208" s="116"/>
       <c r="AV208" s="66"/>
     </row>
     <row r="209" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16572,10 +16264,10 @@
       <c r="C209" s="65"/>
       <c r="F209" s="66"/>
       <c r="G209" s="65"/>
-      <c r="L209" s="116"/>
+      <c r="L209" s="115"/>
       <c r="P209" s="102"/>
       <c r="Q209" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R209" s="102"/>
       <c r="S209" s="102"/>
@@ -16589,7 +16281,7 @@
         <v>96</v>
       </c>
       <c r="AA209" s="102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AC209" s="102"/>
       <c r="AD209" s="102"/>
@@ -16602,10 +16294,10 @@
       <c r="AK209" s="102"/>
       <c r="AL209" s="102"/>
       <c r="AM209" s="102"/>
-      <c r="AN209" s="117"/>
-      <c r="AO209" s="117"/>
-      <c r="AP209" s="117"/>
-      <c r="AQ209" s="117"/>
+      <c r="AN209" s="116"/>
+      <c r="AO209" s="116"/>
+      <c r="AP209" s="116"/>
+      <c r="AQ209" s="116"/>
       <c r="AV209" s="66"/>
     </row>
     <row r="210" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16613,10 +16305,10 @@
       <c r="C210" s="65"/>
       <c r="F210" s="66"/>
       <c r="G210" s="65"/>
-      <c r="L210" s="116"/>
+      <c r="L210" s="115"/>
       <c r="P210" s="102"/>
       <c r="Q210" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R210" s="102"/>
       <c r="S210" s="102"/>
@@ -16630,7 +16322,7 @@
         <v>96</v>
       </c>
       <c r="AA210" s="102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AC210" s="102"/>
       <c r="AD210" s="102"/>
@@ -16643,10 +16335,10 @@
       <c r="AK210" s="102"/>
       <c r="AL210" s="102"/>
       <c r="AM210" s="102"/>
-      <c r="AN210" s="117"/>
-      <c r="AO210" s="117"/>
-      <c r="AP210" s="117"/>
-      <c r="AQ210" s="117"/>
+      <c r="AN210" s="116"/>
+      <c r="AO210" s="116"/>
+      <c r="AP210" s="116"/>
+      <c r="AQ210" s="116"/>
       <c r="AV210" s="66"/>
     </row>
     <row r="211" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16654,10 +16346,10 @@
       <c r="C211" s="65"/>
       <c r="F211" s="66"/>
       <c r="G211" s="65"/>
-      <c r="L211" s="116"/>
+      <c r="L211" s="115"/>
       <c r="P211" s="102"/>
       <c r="Q211" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R211" s="102"/>
       <c r="S211" s="102"/>
@@ -16671,7 +16363,7 @@
         <v>96</v>
       </c>
       <c r="AA211" s="102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC211" s="102"/>
       <c r="AD211" s="102"/>
@@ -16684,10 +16376,10 @@
       <c r="AK211" s="102"/>
       <c r="AL211" s="102"/>
       <c r="AM211" s="102"/>
-      <c r="AN211" s="117"/>
-      <c r="AO211" s="117"/>
-      <c r="AP211" s="117"/>
-      <c r="AQ211" s="117"/>
+      <c r="AN211" s="116"/>
+      <c r="AO211" s="116"/>
+      <c r="AP211" s="116"/>
+      <c r="AQ211" s="116"/>
       <c r="AV211" s="66"/>
     </row>
     <row r="212" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16695,10 +16387,10 @@
       <c r="C212" s="65"/>
       <c r="F212" s="66"/>
       <c r="G212" s="65"/>
-      <c r="L212" s="116"/>
+      <c r="L212" s="115"/>
       <c r="P212" s="102"/>
       <c r="Q212" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R212" s="102"/>
       <c r="S212" s="102"/>
@@ -16712,7 +16404,7 @@
         <v>96</v>
       </c>
       <c r="AA212" s="102" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AC212" s="102"/>
       <c r="AD212" s="102"/>
@@ -16725,10 +16417,10 @@
       <c r="AK212" s="102"/>
       <c r="AL212" s="102"/>
       <c r="AM212" s="102"/>
-      <c r="AN212" s="117"/>
-      <c r="AO212" s="117"/>
-      <c r="AP212" s="117"/>
-      <c r="AQ212" s="117"/>
+      <c r="AN212" s="116"/>
+      <c r="AO212" s="116"/>
+      <c r="AP212" s="116"/>
+      <c r="AQ212" s="116"/>
       <c r="AV212" s="66"/>
     </row>
     <row r="213" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16738,7 +16430,7 @@
       <c r="G213" s="65"/>
       <c r="K213" s="66"/>
       <c r="P213" s="102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q213" s="102"/>
       <c r="R213" s="102"/>
@@ -16760,7 +16452,7 @@
       <c r="K214" s="66"/>
       <c r="P214" s="102"/>
       <c r="Q214" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R214" s="102"/>
       <c r="S214" s="102"/>
@@ -16774,7 +16466,7 @@
         <v>96</v>
       </c>
       <c r="AA214" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM214" s="102"/>
       <c r="AV214" s="66"/>
@@ -16787,7 +16479,7 @@
       <c r="K215" s="66"/>
       <c r="P215" s="102"/>
       <c r="Q215" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R215" s="102"/>
       <c r="S215" s="102"/>
@@ -16801,7 +16493,7 @@
         <v>96</v>
       </c>
       <c r="AA215" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM215" s="102"/>
       <c r="AV215" s="66"/>
@@ -16814,7 +16506,7 @@
       <c r="K216" s="66"/>
       <c r="P216" s="102"/>
       <c r="Q216" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R216" s="102"/>
       <c r="S216" s="102"/>
@@ -16828,7 +16520,7 @@
         <v>96</v>
       </c>
       <c r="AA216" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM216" s="102"/>
       <c r="AV216" s="66"/>
@@ -16841,7 +16533,7 @@
       <c r="K217" s="66"/>
       <c r="P217" s="102"/>
       <c r="Q217" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R217" s="102"/>
       <c r="S217" s="102"/>
@@ -16855,7 +16547,7 @@
         <v>96</v>
       </c>
       <c r="AA217" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM217" s="102"/>
       <c r="AV217" s="66"/>
@@ -16868,7 +16560,7 @@
       <c r="K218" s="66"/>
       <c r="P218" s="102"/>
       <c r="Q218" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R218" s="102"/>
       <c r="S218" s="102"/>
@@ -16882,7 +16574,7 @@
         <v>96</v>
       </c>
       <c r="AA218" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM218" s="102"/>
       <c r="AV218" s="66"/>
@@ -16894,7 +16586,7 @@
       <c r="G219" s="65"/>
       <c r="K219" s="66"/>
       <c r="P219" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q219" s="102"/>
       <c r="R219" s="102"/>
@@ -16916,7 +16608,7 @@
       <c r="K220" s="66"/>
       <c r="P220" s="102"/>
       <c r="Q220" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R220" s="102"/>
       <c r="S220" s="102"/>
@@ -16930,7 +16622,7 @@
         <v>96</v>
       </c>
       <c r="AA220" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM220" s="102"/>
       <c r="AV220" s="66"/>
@@ -16942,7 +16634,7 @@
       <c r="G221" s="65"/>
       <c r="K221" s="66"/>
       <c r="P221" s="102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q221" s="102"/>
       <c r="R221" s="102"/>
@@ -16964,7 +16656,7 @@
       <c r="K222" s="66"/>
       <c r="P222" s="102"/>
       <c r="Q222" s="102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R222" s="102"/>
       <c r="S222" s="102"/>
@@ -16978,7 +16670,7 @@
         <v>96</v>
       </c>
       <c r="AA222" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM222" s="102"/>
       <c r="AV222" s="66"/>
@@ -16991,7 +16683,7 @@
       <c r="K223" s="66"/>
       <c r="P223" s="102"/>
       <c r="Q223" s="102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R223" s="102"/>
       <c r="S223" s="102"/>
@@ -17005,7 +16697,7 @@
         <v>96</v>
       </c>
       <c r="AA223" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM223" s="102"/>
       <c r="AV223" s="66"/>
@@ -17051,7 +16743,7 @@
       <c r="G225" s="65"/>
       <c r="K225" s="66"/>
       <c r="O225" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P225" s="102"/>
       <c r="Q225" s="102"/>
@@ -17085,7 +16777,7 @@
       <c r="K226" s="66"/>
       <c r="N226" s="102"/>
       <c r="P226" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q226" s="102"/>
       <c r="R226" s="102"/>
@@ -17099,7 +16791,7 @@
         <v>96</v>
       </c>
       <c r="AA226" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB226" s="102"/>
       <c r="AC226" s="102"/>
@@ -17118,7 +16810,7 @@
       <c r="K227" s="66"/>
       <c r="N227" s="102"/>
       <c r="P227" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q227" s="102"/>
       <c r="R227" s="102"/>
@@ -17131,8 +16823,8 @@
       <c r="Z227" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA227" s="131" t="s">
-        <v>287</v>
+      <c r="AA227" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB227" s="102"/>
       <c r="AC227" s="102"/>
@@ -17151,7 +16843,7 @@
       <c r="K228" s="66"/>
       <c r="N228" s="102"/>
       <c r="P228" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q228" s="102"/>
       <c r="R228" s="102"/>
@@ -17165,7 +16857,7 @@
         <v>96</v>
       </c>
       <c r="AA228" s="103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB228" s="102"/>
       <c r="AC228" s="102"/>
@@ -17184,7 +16876,7 @@
       <c r="K229" s="66"/>
       <c r="N229" s="102"/>
       <c r="P229" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q229" s="102"/>
       <c r="R229" s="102"/>
@@ -17195,7 +16887,7 @@
       <c r="W229" s="102"/>
       <c r="X229" s="102"/>
       <c r="Z229" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA229" s="102"/>
       <c r="AB229" s="102"/>
@@ -17205,7 +16897,7 @@
       <c r="AK229" s="102"/>
       <c r="AL229" s="102"/>
       <c r="AO229" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV229" s="66"/>
     </row>
@@ -17231,7 +16923,7 @@
         <v>96</v>
       </c>
       <c r="AA230" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB230" s="102"/>
       <c r="AC230" s="102"/>
@@ -17241,7 +16933,7 @@
       <c r="AJ230" s="102"/>
       <c r="AK230" s="104"/>
       <c r="AO230" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV230" s="66"/>
     </row>
@@ -17253,7 +16945,7 @@
       <c r="K231" s="66"/>
       <c r="N231" s="102"/>
       <c r="P231" s="102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q231" s="102"/>
       <c r="R231" s="102"/>
@@ -17267,7 +16959,7 @@
         <v>96</v>
       </c>
       <c r="AA231" s="102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB231" s="102"/>
       <c r="AC231" s="102"/>
@@ -17277,7 +16969,7 @@
       <c r="AJ231" s="102"/>
       <c r="AK231" s="104"/>
       <c r="AO231" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV231" s="66"/>
     </row>
@@ -17289,7 +16981,7 @@
       <c r="K232" s="66"/>
       <c r="N232" s="102"/>
       <c r="P232" s="102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q232" s="102"/>
       <c r="R232" s="102"/>
@@ -17303,7 +16995,7 @@
         <v>96</v>
       </c>
       <c r="AA232" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AB232" s="102"/>
       <c r="AC232" s="102"/>
@@ -17313,7 +17005,7 @@
       <c r="AJ232" s="102"/>
       <c r="AK232" s="104"/>
       <c r="AO232" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV232" s="66"/>
     </row>
@@ -17325,7 +17017,7 @@
       <c r="K233" s="66"/>
       <c r="N233" s="102"/>
       <c r="P233" s="102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q233" s="102"/>
       <c r="R233" s="102"/>
@@ -17339,7 +17031,7 @@
         <v>96</v>
       </c>
       <c r="AA233" s="102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB233" s="102"/>
       <c r="AC233" s="102"/>
@@ -17349,7 +17041,7 @@
       <c r="AJ233" s="102"/>
       <c r="AK233" s="104"/>
       <c r="AO233" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV233" s="66"/>
     </row>
@@ -17361,7 +17053,7 @@
       <c r="K234" s="66"/>
       <c r="N234" s="102"/>
       <c r="P234" s="102" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q234" s="102"/>
       <c r="R234" s="102"/>
@@ -17372,7 +17064,7 @@
       <c r="W234" s="102"/>
       <c r="X234" s="102"/>
       <c r="Z234" s="102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AA234" s="102"/>
       <c r="AB234" s="102"/>
@@ -17383,7 +17075,7 @@
       <c r="AJ234" s="102"/>
       <c r="AK234" s="104"/>
       <c r="AO234" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV234" s="66"/>
     </row>
@@ -17406,7 +17098,7 @@
       <c r="G236" s="65"/>
       <c r="K236" s="66"/>
       <c r="O236" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL236" s="102"/>
       <c r="AM236" s="102"/>
@@ -17420,7 +17112,7 @@
       <c r="G237" s="65"/>
       <c r="K237" s="66"/>
       <c r="P237" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL237" s="102"/>
       <c r="AM237" s="102"/>
@@ -17434,7 +17126,7 @@
       <c r="G238" s="65"/>
       <c r="K238" s="66"/>
       <c r="P238" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL238" s="102"/>
       <c r="AM238" s="102"/>
@@ -17448,7 +17140,7 @@
       <c r="G239" s="65"/>
       <c r="K239" s="66"/>
       <c r="P239" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL239" s="102"/>
       <c r="AM239" s="102"/>
@@ -17462,7 +17154,7 @@
       <c r="G240" s="65"/>
       <c r="K240" s="66"/>
       <c r="P240" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL240" s="102"/>
       <c r="AM240" s="102"/>
@@ -17476,7 +17168,7 @@
       <c r="G241" s="65"/>
       <c r="K241" s="66"/>
       <c r="P241" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL241" s="102"/>
       <c r="AM241" s="102"/>
@@ -17516,7 +17208,7 @@
       <c r="G244" s="65"/>
       <c r="K244" s="66"/>
       <c r="P244" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL244" s="102"/>
       <c r="AM244" s="102"/>
@@ -17530,7 +17222,7 @@
       <c r="G245" s="65"/>
       <c r="K245" s="66"/>
       <c r="P245" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL245" s="102"/>
       <c r="AM245" s="102"/>
@@ -17552,7 +17244,7 @@
       <c r="G247" s="65"/>
       <c r="L247" s="65"/>
       <c r="N247" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AV247" s="66"/>
     </row>
@@ -17563,7 +17255,7 @@
       <c r="G248" s="65"/>
       <c r="K248" s="66"/>
       <c r="O248" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P248" s="102"/>
       <c r="Q248" s="102"/>
@@ -17583,7 +17275,7 @@
       <c r="G249" s="65"/>
       <c r="K249" s="66"/>
       <c r="P249" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q249" s="102"/>
       <c r="R249" s="102"/>
@@ -17604,7 +17296,7 @@
       <c r="G250" s="65"/>
       <c r="K250" s="66"/>
       <c r="P250" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q250" s="102"/>
       <c r="R250" s="102"/>
@@ -17625,7 +17317,7 @@
       <c r="G251" s="65"/>
       <c r="K251" s="66"/>
       <c r="P251" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q251" s="102"/>
       <c r="R251" s="102"/>
@@ -17645,7 +17337,7 @@
       <c r="G252" s="65"/>
       <c r="K252" s="66"/>
       <c r="P252" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q252" s="102"/>
       <c r="R252" s="102"/>
@@ -17665,7 +17357,7 @@
       <c r="G253" s="65"/>
       <c r="K253" s="66"/>
       <c r="P253" s="102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q253" s="102"/>
       <c r="R253" s="102"/>
@@ -17686,7 +17378,7 @@
       <c r="G254" s="65"/>
       <c r="K254" s="66"/>
       <c r="P254" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q254" s="102"/>
       <c r="R254" s="102"/>
@@ -17725,7 +17417,7 @@
       <c r="G256" s="65"/>
       <c r="K256" s="66"/>
       <c r="O256" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P256" s="102"/>
       <c r="Q256" s="102"/>
@@ -17745,7 +17437,7 @@
       <c r="G257" s="65"/>
       <c r="K257" s="66"/>
       <c r="P257" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q257" s="102"/>
       <c r="R257" s="102"/>
@@ -17765,7 +17457,7 @@
       <c r="G258" s="65"/>
       <c r="K258" s="66"/>
       <c r="P258" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q258" s="102"/>
       <c r="R258" s="102"/>
@@ -17787,7 +17479,7 @@
       <c r="K259" s="66"/>
       <c r="P259" s="102"/>
       <c r="Q259" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R259" s="102"/>
       <c r="S259" s="102"/>
@@ -17801,7 +17493,7 @@
         <v>96</v>
       </c>
       <c r="AA259" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM259" s="102"/>
       <c r="AV259" s="66"/>
@@ -17814,7 +17506,7 @@
       <c r="K260" s="66"/>
       <c r="P260" s="102"/>
       <c r="Q260" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R260" s="102"/>
       <c r="S260" s="102"/>
@@ -17828,7 +17520,7 @@
         <v>96</v>
       </c>
       <c r="AA260" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV260" s="66"/>
     </row>
@@ -17839,7 +17531,7 @@
       <c r="G261" s="65"/>
       <c r="K261" s="66"/>
       <c r="P261" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q261" s="102"/>
       <c r="R261" s="102"/>
@@ -17861,7 +17553,7 @@
       <c r="K262" s="66"/>
       <c r="P262" s="102"/>
       <c r="Q262" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R262" s="102"/>
       <c r="S262" s="102"/>
@@ -17875,7 +17567,7 @@
         <v>96</v>
       </c>
       <c r="AA262" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM262" s="102"/>
       <c r="AV262" s="66"/>
@@ -17887,7 +17579,7 @@
       <c r="G263" s="65"/>
       <c r="K263" s="66"/>
       <c r="P263" s="102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q263" s="102"/>
       <c r="R263" s="102"/>
@@ -17909,7 +17601,7 @@
       <c r="K264" s="66"/>
       <c r="P264" s="102"/>
       <c r="Q264" s="102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R264" s="102"/>
       <c r="S264" s="102"/>
@@ -17923,7 +17615,7 @@
         <v>96</v>
       </c>
       <c r="AA264" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM264" s="102"/>
       <c r="AV264" s="66"/>
@@ -17936,7 +17628,7 @@
       <c r="K265" s="66"/>
       <c r="P265" s="102"/>
       <c r="Q265" s="102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R265" s="102"/>
       <c r="S265" s="102"/>
@@ -17950,7 +17642,7 @@
         <v>96</v>
       </c>
       <c r="AA265" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM265" s="102"/>
       <c r="AV265" s="66"/>
@@ -17996,7 +17688,7 @@
       <c r="G267" s="65"/>
       <c r="K267" s="66"/>
       <c r="O267" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P267" s="102"/>
       <c r="Q267" s="102"/>
@@ -18030,7 +17722,7 @@
       <c r="K268" s="66"/>
       <c r="N268" s="102"/>
       <c r="P268" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q268" s="102"/>
       <c r="R268" s="102"/>
@@ -18044,7 +17736,7 @@
         <v>96</v>
       </c>
       <c r="AA268" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB268" s="102"/>
       <c r="AC268" s="102"/>
@@ -18063,7 +17755,7 @@
       <c r="K269" s="66"/>
       <c r="N269" s="102"/>
       <c r="P269" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q269" s="102"/>
       <c r="R269" s="102"/>
@@ -18076,8 +17768,8 @@
       <c r="Z269" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA269" s="131" t="s">
-        <v>287</v>
+      <c r="AA269" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB269" s="102"/>
       <c r="AC269" s="102"/>
@@ -18096,7 +17788,7 @@
       <c r="K270" s="66"/>
       <c r="N270" s="102"/>
       <c r="P270" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q270" s="102"/>
       <c r="R270" s="102"/>
@@ -18110,7 +17802,7 @@
         <v>96</v>
       </c>
       <c r="AA270" s="103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB270" s="102"/>
       <c r="AC270" s="102"/>
@@ -18129,7 +17821,7 @@
       <c r="K271" s="66"/>
       <c r="N271" s="102"/>
       <c r="P271" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q271" s="102"/>
       <c r="R271" s="102"/>
@@ -18140,7 +17832,7 @@
       <c r="W271" s="102"/>
       <c r="X271" s="102"/>
       <c r="Z271" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA271" s="102"/>
       <c r="AB271" s="102"/>
@@ -18150,7 +17842,7 @@
       <c r="AK271" s="102"/>
       <c r="AL271" s="102"/>
       <c r="AO271" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV271" s="66"/>
     </row>
@@ -18176,7 +17868,7 @@
         <v>96</v>
       </c>
       <c r="AA272" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB272" s="102"/>
       <c r="AC272" s="102"/>
@@ -18186,7 +17878,7 @@
       <c r="AJ272" s="102"/>
       <c r="AK272" s="104"/>
       <c r="AO272" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV272" s="66"/>
     </row>
@@ -18197,36 +17889,36 @@
       <c r="G273" s="65"/>
       <c r="K273" s="66"/>
       <c r="M273" s="102"/>
-      <c r="P273" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q273" s="133"/>
-      <c r="R273" s="133"/>
-      <c r="S273" s="133"/>
-      <c r="T273" s="133"/>
-      <c r="U273" s="133"/>
-      <c r="V273" s="133"/>
-      <c r="W273" s="133"/>
-      <c r="X273" s="133"/>
-      <c r="Y273" s="133"/>
-      <c r="Z273" s="133" t="s">
+      <c r="P273" s="132" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q273" s="132"/>
+      <c r="R273" s="132"/>
+      <c r="S273" s="132"/>
+      <c r="T273" s="132"/>
+      <c r="U273" s="132"/>
+      <c r="V273" s="132"/>
+      <c r="W273" s="132"/>
+      <c r="X273" s="132"/>
+      <c r="Y273" s="132"/>
+      <c r="Z273" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA273" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB273" s="134"/>
-      <c r="AC273" s="133"/>
-      <c r="AD273" s="133"/>
-      <c r="AE273" s="134"/>
-      <c r="AF273" s="134"/>
-      <c r="AG273" s="134"/>
+      <c r="AA273" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB273" s="133"/>
+      <c r="AC273" s="132"/>
+      <c r="AD273" s="132"/>
+      <c r="AE273" s="133"/>
+      <c r="AF273" s="133"/>
+      <c r="AG273" s="133"/>
       <c r="AH273" s="102"/>
       <c r="AI273" s="102"/>
       <c r="AJ273" s="102"/>
       <c r="AK273" s="104"/>
       <c r="AO273" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV273" s="66"/>
     </row>
@@ -18237,36 +17929,36 @@
       <c r="G274" s="65"/>
       <c r="K274" s="66"/>
       <c r="M274" s="102"/>
-      <c r="P274" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q274" s="133"/>
-      <c r="R274" s="133"/>
-      <c r="S274" s="133"/>
-      <c r="T274" s="133"/>
-      <c r="U274" s="133"/>
-      <c r="V274" s="133"/>
-      <c r="W274" s="133"/>
-      <c r="X274" s="133"/>
-      <c r="Y274" s="133"/>
-      <c r="Z274" s="133" t="s">
+      <c r="P274" s="132" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q274" s="132"/>
+      <c r="R274" s="132"/>
+      <c r="S274" s="132"/>
+      <c r="T274" s="132"/>
+      <c r="U274" s="132"/>
+      <c r="V274" s="132"/>
+      <c r="W274" s="132"/>
+      <c r="X274" s="132"/>
+      <c r="Y274" s="132"/>
+      <c r="Z274" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA274" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB274" s="134"/>
-      <c r="AC274" s="133"/>
-      <c r="AD274" s="133"/>
-      <c r="AE274" s="134"/>
-      <c r="AF274" s="134"/>
-      <c r="AG274" s="134"/>
+      <c r="AA274" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB274" s="133"/>
+      <c r="AC274" s="132"/>
+      <c r="AD274" s="132"/>
+      <c r="AE274" s="133"/>
+      <c r="AF274" s="133"/>
+      <c r="AG274" s="133"/>
       <c r="AH274" s="102"/>
       <c r="AI274" s="102"/>
       <c r="AJ274" s="102"/>
       <c r="AK274" s="104"/>
       <c r="AO274" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV274" s="66"/>
     </row>
@@ -18277,36 +17969,36 @@
       <c r="G275" s="65"/>
       <c r="K275" s="66"/>
       <c r="M275" s="102"/>
-      <c r="P275" s="133" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q275" s="133"/>
-      <c r="R275" s="133"/>
-      <c r="S275" s="133"/>
-      <c r="T275" s="133"/>
-      <c r="U275" s="133"/>
-      <c r="V275" s="133"/>
-      <c r="W275" s="133"/>
-      <c r="X275" s="133"/>
-      <c r="Y275" s="133"/>
-      <c r="Z275" s="133" t="s">
+      <c r="P275" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q275" s="132"/>
+      <c r="R275" s="132"/>
+      <c r="S275" s="132"/>
+      <c r="T275" s="132"/>
+      <c r="U275" s="132"/>
+      <c r="V275" s="132"/>
+      <c r="W275" s="132"/>
+      <c r="X275" s="132"/>
+      <c r="Y275" s="132"/>
+      <c r="Z275" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA275" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB275" s="134"/>
-      <c r="AC275" s="133"/>
-      <c r="AD275" s="133"/>
-      <c r="AE275" s="134"/>
-      <c r="AF275" s="134"/>
-      <c r="AG275" s="134"/>
+      <c r="AA275" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB275" s="133"/>
+      <c r="AC275" s="132"/>
+      <c r="AD275" s="132"/>
+      <c r="AE275" s="133"/>
+      <c r="AF275" s="133"/>
+      <c r="AG275" s="133"/>
       <c r="AH275" s="102"/>
       <c r="AI275" s="102"/>
       <c r="AJ275" s="102"/>
       <c r="AK275" s="104"/>
       <c r="AO275" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV275" s="66"/>
     </row>
@@ -18317,36 +18009,36 @@
       <c r="G276" s="65"/>
       <c r="K276" s="66"/>
       <c r="M276" s="102"/>
-      <c r="P276" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q276" s="133"/>
-      <c r="R276" s="133"/>
-      <c r="S276" s="133"/>
-      <c r="T276" s="133"/>
-      <c r="U276" s="133"/>
-      <c r="V276" s="133"/>
-      <c r="W276" s="133"/>
-      <c r="X276" s="133"/>
-      <c r="Y276" s="133"/>
-      <c r="Z276" s="133" t="s">
+      <c r="P276" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q276" s="132"/>
+      <c r="R276" s="132"/>
+      <c r="S276" s="132"/>
+      <c r="T276" s="132"/>
+      <c r="U276" s="132"/>
+      <c r="V276" s="132"/>
+      <c r="W276" s="132"/>
+      <c r="X276" s="132"/>
+      <c r="Y276" s="132"/>
+      <c r="Z276" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA276" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB276" s="134"/>
-      <c r="AC276" s="133"/>
-      <c r="AD276" s="133"/>
-      <c r="AE276" s="134"/>
-      <c r="AF276" s="134"/>
-      <c r="AG276" s="134"/>
+      <c r="AA276" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB276" s="133"/>
+      <c r="AC276" s="132"/>
+      <c r="AD276" s="132"/>
+      <c r="AE276" s="133"/>
+      <c r="AF276" s="133"/>
+      <c r="AG276" s="133"/>
       <c r="AH276" s="102"/>
       <c r="AI276" s="102"/>
       <c r="AJ276" s="102"/>
       <c r="AK276" s="104"/>
       <c r="AO276" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV276" s="66"/>
     </row>
@@ -18357,36 +18049,36 @@
       <c r="G277" s="65"/>
       <c r="K277" s="66"/>
       <c r="M277" s="102"/>
-      <c r="P277" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q277" s="133"/>
-      <c r="R277" s="133"/>
-      <c r="S277" s="133"/>
-      <c r="T277" s="133"/>
-      <c r="U277" s="133"/>
-      <c r="V277" s="133"/>
-      <c r="W277" s="133"/>
-      <c r="X277" s="133"/>
-      <c r="Y277" s="133"/>
-      <c r="Z277" s="133" t="s">
+      <c r="P277" s="132" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q277" s="132"/>
+      <c r="R277" s="132"/>
+      <c r="S277" s="132"/>
+      <c r="T277" s="132"/>
+      <c r="U277" s="132"/>
+      <c r="V277" s="132"/>
+      <c r="W277" s="132"/>
+      <c r="X277" s="132"/>
+      <c r="Y277" s="132"/>
+      <c r="Z277" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA277" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB277" s="134"/>
-      <c r="AC277" s="133"/>
-      <c r="AD277" s="133"/>
-      <c r="AE277" s="134"/>
-      <c r="AF277" s="134"/>
-      <c r="AG277" s="134"/>
+      <c r="AA277" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB277" s="133"/>
+      <c r="AC277" s="132"/>
+      <c r="AD277" s="132"/>
+      <c r="AE277" s="133"/>
+      <c r="AF277" s="133"/>
+      <c r="AG277" s="133"/>
       <c r="AH277" s="102"/>
       <c r="AI277" s="102"/>
       <c r="AJ277" s="102"/>
       <c r="AK277" s="104"/>
       <c r="AO277" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV277" s="66"/>
     </row>
@@ -18409,7 +18101,7 @@
       <c r="G279" s="65"/>
       <c r="K279" s="66"/>
       <c r="O279" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL279" s="102"/>
       <c r="AM279" s="102"/>
@@ -18423,7 +18115,7 @@
       <c r="G280" s="65"/>
       <c r="K280" s="66"/>
       <c r="P280" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL280" s="102"/>
       <c r="AM280" s="102"/>
@@ -18437,7 +18129,7 @@
       <c r="G281" s="65"/>
       <c r="K281" s="66"/>
       <c r="P281" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL281" s="102"/>
       <c r="AM281" s="102"/>
@@ -18451,7 +18143,7 @@
       <c r="G282" s="65"/>
       <c r="K282" s="66"/>
       <c r="P282" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL282" s="102"/>
       <c r="AM282" s="102"/>
@@ -18465,7 +18157,7 @@
       <c r="G283" s="65"/>
       <c r="K283" s="66"/>
       <c r="P283" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL283" s="102"/>
       <c r="AM283" s="102"/>
@@ -18479,7 +18171,7 @@
       <c r="G284" s="65"/>
       <c r="K284" s="66"/>
       <c r="P284" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL284" s="102"/>
       <c r="AM284" s="102"/>
@@ -18519,7 +18211,7 @@
       <c r="G287" s="65"/>
       <c r="K287" s="66"/>
       <c r="P287" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL287" s="102"/>
       <c r="AM287" s="102"/>
@@ -18533,7 +18225,7 @@
       <c r="G288" s="65"/>
       <c r="K288" s="66"/>
       <c r="P288" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL288" s="102"/>
       <c r="AM288" s="102"/>
@@ -18602,7 +18294,7 @@
       <c r="K290" s="66"/>
       <c r="L290" s="98"/>
       <c r="M290" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V290" s="98"/>
       <c r="W290" s="98"/>
@@ -18639,7 +18331,7 @@
       <c r="G291" s="65"/>
       <c r="L291" s="65"/>
       <c r="N291" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AV291" s="66"/>
     </row>
@@ -18650,7 +18342,7 @@
       <c r="G292" s="65"/>
       <c r="K292" s="66"/>
       <c r="O292" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P292" s="102"/>
       <c r="Q292" s="102"/>
@@ -18670,7 +18362,7 @@
       <c r="G293" s="65"/>
       <c r="K293" s="66"/>
       <c r="P293" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q293" s="102"/>
       <c r="R293" s="102"/>
@@ -18691,7 +18383,7 @@
       <c r="G294" s="65"/>
       <c r="K294" s="66"/>
       <c r="P294" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q294" s="102"/>
       <c r="R294" s="102"/>
@@ -18712,7 +18404,7 @@
       <c r="G295" s="65"/>
       <c r="K295" s="66"/>
       <c r="P295" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q295" s="102"/>
       <c r="R295" s="102"/>
@@ -18732,7 +18424,7 @@
       <c r="G296" s="65"/>
       <c r="K296" s="66"/>
       <c r="P296" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q296" s="102"/>
       <c r="R296" s="102"/>
@@ -18752,7 +18444,7 @@
       <c r="G297" s="65"/>
       <c r="K297" s="66"/>
       <c r="P297" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q297" s="102"/>
       <c r="R297" s="102"/>
@@ -18791,7 +18483,7 @@
       <c r="G299" s="65"/>
       <c r="K299" s="66"/>
       <c r="O299" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P299" s="102"/>
       <c r="Q299" s="102"/>
@@ -18811,7 +18503,7 @@
       <c r="G300" s="65"/>
       <c r="K300" s="66"/>
       <c r="P300" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q300" s="102"/>
       <c r="R300" s="102"/>
@@ -18831,7 +18523,7 @@
       <c r="G301" s="65"/>
       <c r="K301" s="66"/>
       <c r="P301" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q301" s="102"/>
       <c r="R301" s="102"/>
@@ -18853,7 +18545,7 @@
       <c r="K302" s="66"/>
       <c r="P302" s="102"/>
       <c r="Q302" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R302" s="102"/>
       <c r="S302" s="102"/>
@@ -18867,7 +18559,7 @@
         <v>96</v>
       </c>
       <c r="AA302" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM302" s="102"/>
       <c r="AV302" s="66"/>
@@ -18880,7 +18572,7 @@
       <c r="K303" s="66"/>
       <c r="P303" s="102"/>
       <c r="Q303" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R303" s="102"/>
       <c r="S303" s="102"/>
@@ -18894,7 +18586,7 @@
         <v>96</v>
       </c>
       <c r="AA303" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV303" s="66"/>
     </row>
@@ -18903,9 +18595,9 @@
       <c r="C304" s="65"/>
       <c r="F304" s="66"/>
       <c r="G304" s="65"/>
-      <c r="L304" s="116"/>
+      <c r="L304" s="115"/>
       <c r="P304" s="102" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q304" s="102"/>
       <c r="R304" s="102"/>
@@ -18930,10 +18622,10 @@
       <c r="AK304" s="102"/>
       <c r="AL304" s="102"/>
       <c r="AM304" s="102"/>
-      <c r="AN304" s="117"/>
-      <c r="AO304" s="117"/>
-      <c r="AP304" s="117"/>
-      <c r="AQ304" s="117"/>
+      <c r="AN304" s="116"/>
+      <c r="AO304" s="116"/>
+      <c r="AP304" s="116"/>
+      <c r="AQ304" s="116"/>
       <c r="AV304" s="66"/>
     </row>
     <row r="305" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -18941,10 +18633,10 @@
       <c r="C305" s="65"/>
       <c r="F305" s="66"/>
       <c r="G305" s="65"/>
-      <c r="L305" s="116"/>
+      <c r="L305" s="115"/>
       <c r="P305" s="102"/>
       <c r="Q305" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R305" s="102"/>
       <c r="S305" s="102"/>
@@ -18958,7 +18650,7 @@
         <v>96</v>
       </c>
       <c r="AA305" s="102" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AC305" s="102"/>
       <c r="AD305" s="102"/>
@@ -18971,10 +18663,10 @@
       <c r="AK305" s="102"/>
       <c r="AL305" s="102"/>
       <c r="AM305" s="102"/>
-      <c r="AN305" s="117"/>
-      <c r="AO305" s="117"/>
-      <c r="AP305" s="117"/>
-      <c r="AQ305" s="117"/>
+      <c r="AN305" s="116"/>
+      <c r="AO305" s="116"/>
+      <c r="AP305" s="116"/>
+      <c r="AQ305" s="116"/>
       <c r="AV305" s="66"/>
     </row>
     <row r="306" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -18982,10 +18674,10 @@
       <c r="C306" s="65"/>
       <c r="F306" s="66"/>
       <c r="G306" s="65"/>
-      <c r="L306" s="116"/>
+      <c r="L306" s="115"/>
       <c r="P306" s="102"/>
       <c r="Q306" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R306" s="102"/>
       <c r="S306" s="102"/>
@@ -18999,7 +18691,7 @@
         <v>96</v>
       </c>
       <c r="AA306" s="102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AC306" s="102"/>
       <c r="AD306" s="102"/>
@@ -19012,10 +18704,10 @@
       <c r="AK306" s="102"/>
       <c r="AL306" s="102"/>
       <c r="AM306" s="102"/>
-      <c r="AN306" s="117"/>
-      <c r="AO306" s="117"/>
-      <c r="AP306" s="117"/>
-      <c r="AQ306" s="117"/>
+      <c r="AN306" s="116"/>
+      <c r="AO306" s="116"/>
+      <c r="AP306" s="116"/>
+      <c r="AQ306" s="116"/>
       <c r="AV306" s="66"/>
     </row>
     <row r="307" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19023,10 +18715,10 @@
       <c r="C307" s="65"/>
       <c r="F307" s="66"/>
       <c r="G307" s="65"/>
-      <c r="L307" s="116"/>
+      <c r="L307" s="115"/>
       <c r="P307" s="102"/>
       <c r="Q307" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R307" s="102"/>
       <c r="S307" s="102"/>
@@ -19040,7 +18732,7 @@
         <v>96</v>
       </c>
       <c r="AA307" s="102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AC307" s="102"/>
       <c r="AD307" s="102"/>
@@ -19053,10 +18745,10 @@
       <c r="AK307" s="102"/>
       <c r="AL307" s="102"/>
       <c r="AM307" s="102"/>
-      <c r="AN307" s="117"/>
-      <c r="AO307" s="117"/>
-      <c r="AP307" s="117"/>
-      <c r="AQ307" s="117"/>
+      <c r="AN307" s="116"/>
+      <c r="AO307" s="116"/>
+      <c r="AP307" s="116"/>
+      <c r="AQ307" s="116"/>
       <c r="AV307" s="66"/>
     </row>
     <row r="308" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19064,10 +18756,10 @@
       <c r="C308" s="65"/>
       <c r="F308" s="66"/>
       <c r="G308" s="65"/>
-      <c r="L308" s="116"/>
+      <c r="L308" s="115"/>
       <c r="P308" s="102"/>
       <c r="Q308" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R308" s="102"/>
       <c r="S308" s="102"/>
@@ -19081,7 +18773,7 @@
         <v>96</v>
       </c>
       <c r="AA308" s="102" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC308" s="102"/>
       <c r="AD308" s="102"/>
@@ -19094,10 +18786,10 @@
       <c r="AK308" s="102"/>
       <c r="AL308" s="102"/>
       <c r="AM308" s="102"/>
-      <c r="AN308" s="117"/>
-      <c r="AO308" s="117"/>
-      <c r="AP308" s="117"/>
-      <c r="AQ308" s="117"/>
+      <c r="AN308" s="116"/>
+      <c r="AO308" s="116"/>
+      <c r="AP308" s="116"/>
+      <c r="AQ308" s="116"/>
       <c r="AV308" s="66"/>
     </row>
     <row r="309" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19105,10 +18797,10 @@
       <c r="C309" s="65"/>
       <c r="F309" s="66"/>
       <c r="G309" s="65"/>
-      <c r="L309" s="116"/>
+      <c r="L309" s="115"/>
       <c r="P309" s="102"/>
       <c r="Q309" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R309" s="102"/>
       <c r="S309" s="102"/>
@@ -19122,7 +18814,7 @@
         <v>96</v>
       </c>
       <c r="AA309" s="102" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AC309" s="102"/>
       <c r="AD309" s="102"/>
@@ -19135,10 +18827,10 @@
       <c r="AK309" s="102"/>
       <c r="AL309" s="102"/>
       <c r="AM309" s="102"/>
-      <c r="AN309" s="117"/>
-      <c r="AO309" s="117"/>
-      <c r="AP309" s="117"/>
-      <c r="AQ309" s="117"/>
+      <c r="AN309" s="116"/>
+      <c r="AO309" s="116"/>
+      <c r="AP309" s="116"/>
+      <c r="AQ309" s="116"/>
       <c r="AV309" s="66"/>
     </row>
     <row r="310" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19148,7 +18840,7 @@
       <c r="G310" s="65"/>
       <c r="K310" s="66"/>
       <c r="P310" s="102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q310" s="102"/>
       <c r="R310" s="102"/>
@@ -19170,7 +18862,7 @@
       <c r="K311" s="66"/>
       <c r="P311" s="102"/>
       <c r="Q311" s="102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R311" s="102"/>
       <c r="S311" s="102"/>
@@ -19184,7 +18876,7 @@
         <v>96</v>
       </c>
       <c r="AA311" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM311" s="102"/>
       <c r="AV311" s="66"/>
@@ -19197,7 +18889,7 @@
       <c r="K312" s="66"/>
       <c r="P312" s="102"/>
       <c r="Q312" s="102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R312" s="102"/>
       <c r="S312" s="102"/>
@@ -19211,7 +18903,7 @@
         <v>96</v>
       </c>
       <c r="AA312" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM312" s="102"/>
       <c r="AV312" s="66"/>
@@ -19224,7 +18916,7 @@
       <c r="K313" s="66"/>
       <c r="P313" s="102"/>
       <c r="Q313" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R313" s="102"/>
       <c r="S313" s="102"/>
@@ -19238,7 +18930,7 @@
         <v>96</v>
       </c>
       <c r="AA313" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM313" s="102"/>
       <c r="AV313" s="66"/>
@@ -19251,7 +18943,7 @@
       <c r="K314" s="66"/>
       <c r="P314" s="102"/>
       <c r="Q314" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R314" s="102"/>
       <c r="S314" s="102"/>
@@ -19265,7 +18957,7 @@
         <v>96</v>
       </c>
       <c r="AA314" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM314" s="102"/>
       <c r="AV314" s="66"/>
@@ -19278,7 +18970,7 @@
       <c r="K315" s="66"/>
       <c r="P315" s="102"/>
       <c r="Q315" s="102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R315" s="102"/>
       <c r="S315" s="102"/>
@@ -19292,7 +18984,7 @@
         <v>96</v>
       </c>
       <c r="AA315" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM315" s="102"/>
       <c r="AV315" s="66"/>
@@ -19304,7 +18996,7 @@
       <c r="G316" s="65"/>
       <c r="K316" s="66"/>
       <c r="P316" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q316" s="102"/>
       <c r="R316" s="102"/>
@@ -19326,7 +19018,7 @@
       <c r="K317" s="66"/>
       <c r="P317" s="102"/>
       <c r="Q317" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R317" s="102"/>
       <c r="S317" s="102"/>
@@ -19340,7 +19032,7 @@
         <v>96</v>
       </c>
       <c r="AA317" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM317" s="102"/>
       <c r="AV317" s="66"/>
@@ -19386,7 +19078,7 @@
       <c r="G319" s="65"/>
       <c r="K319" s="66"/>
       <c r="O319" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P319" s="102"/>
       <c r="Q319" s="102"/>
@@ -19420,7 +19112,7 @@
       <c r="K320" s="66"/>
       <c r="N320" s="102"/>
       <c r="P320" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q320" s="102"/>
       <c r="R320" s="102"/>
@@ -19434,7 +19126,7 @@
         <v>96</v>
       </c>
       <c r="AA320" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB320" s="102"/>
       <c r="AC320" s="102"/>
@@ -19453,7 +19145,7 @@
       <c r="K321" s="66"/>
       <c r="N321" s="102"/>
       <c r="P321" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q321" s="102"/>
       <c r="R321" s="102"/>
@@ -19466,8 +19158,8 @@
       <c r="Z321" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA321" s="131" t="s">
-        <v>287</v>
+      <c r="AA321" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB321" s="102"/>
       <c r="AC321" s="102"/>
@@ -19486,7 +19178,7 @@
       <c r="K322" s="66"/>
       <c r="N322" s="102"/>
       <c r="P322" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q322" s="102"/>
       <c r="R322" s="102"/>
@@ -19500,7 +19192,7 @@
         <v>96</v>
       </c>
       <c r="AA322" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB322" s="102"/>
       <c r="AC322" s="102"/>
@@ -19519,7 +19211,7 @@
       <c r="K323" s="66"/>
       <c r="N323" s="102"/>
       <c r="P323" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q323" s="102"/>
       <c r="R323" s="102"/>
@@ -19530,7 +19222,7 @@
       <c r="W323" s="102"/>
       <c r="X323" s="102"/>
       <c r="Z323" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA323" s="102"/>
       <c r="AB323" s="102"/>
@@ -19540,7 +19232,7 @@
       <c r="AK323" s="102"/>
       <c r="AL323" s="102"/>
       <c r="AO323" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV323" s="66"/>
     </row>
@@ -19566,7 +19258,7 @@
         <v>96</v>
       </c>
       <c r="AA324" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB324" s="102"/>
       <c r="AC324" s="102"/>
@@ -19576,7 +19268,7 @@
       <c r="AJ324" s="102"/>
       <c r="AK324" s="104"/>
       <c r="AO324" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV324" s="66"/>
     </row>
@@ -19588,7 +19280,7 @@
       <c r="K325" s="66"/>
       <c r="N325" s="102"/>
       <c r="P325" s="102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q325" s="102"/>
       <c r="R325" s="102"/>
@@ -19602,7 +19294,7 @@
         <v>96</v>
       </c>
       <c r="AA325" s="102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB325" s="102"/>
       <c r="AC325" s="102"/>
@@ -19612,7 +19304,7 @@
       <c r="AJ325" s="102"/>
       <c r="AK325" s="104"/>
       <c r="AO325" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV325" s="66"/>
     </row>
@@ -19624,7 +19316,7 @@
       <c r="K326" s="66"/>
       <c r="N326" s="102"/>
       <c r="P326" s="102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q326" s="102"/>
       <c r="R326" s="102"/>
@@ -19638,7 +19330,7 @@
         <v>96</v>
       </c>
       <c r="AA326" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AB326" s="102"/>
       <c r="AC326" s="102"/>
@@ -19648,7 +19340,7 @@
       <c r="AJ326" s="102"/>
       <c r="AK326" s="104"/>
       <c r="AO326" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV326" s="66"/>
     </row>
@@ -19660,7 +19352,7 @@
       <c r="K327" s="66"/>
       <c r="N327" s="102"/>
       <c r="P327" s="102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q327" s="102"/>
       <c r="R327" s="102"/>
@@ -19674,7 +19366,7 @@
         <v>96</v>
       </c>
       <c r="AA327" s="102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB327" s="102"/>
       <c r="AC327" s="102"/>
@@ -19684,7 +19376,7 @@
       <c r="AJ327" s="102"/>
       <c r="AK327" s="104"/>
       <c r="AO327" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV327" s="66"/>
     </row>
@@ -19696,7 +19388,7 @@
       <c r="K328" s="66"/>
       <c r="N328" s="102"/>
       <c r="P328" s="102" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q328" s="102"/>
       <c r="R328" s="102"/>
@@ -19707,7 +19399,7 @@
       <c r="W328" s="102"/>
       <c r="X328" s="102"/>
       <c r="Z328" s="102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AA328" s="102"/>
       <c r="AB328" s="102"/>
@@ -19718,7 +19410,7 @@
       <c r="AJ328" s="102"/>
       <c r="AK328" s="104"/>
       <c r="AO328" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV328" s="66"/>
     </row>
@@ -19741,7 +19433,7 @@
       <c r="G330" s="65"/>
       <c r="K330" s="66"/>
       <c r="O330" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL330" s="102"/>
       <c r="AM330" s="102"/>
@@ -19755,7 +19447,7 @@
       <c r="G331" s="65"/>
       <c r="K331" s="66"/>
       <c r="P331" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL331" s="102"/>
       <c r="AM331" s="102"/>
@@ -19769,7 +19461,7 @@
       <c r="G332" s="65"/>
       <c r="K332" s="66"/>
       <c r="P332" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL332" s="102"/>
       <c r="AM332" s="102"/>
@@ -19783,7 +19475,7 @@
       <c r="G333" s="65"/>
       <c r="K333" s="66"/>
       <c r="P333" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL333" s="102"/>
       <c r="AM333" s="102"/>
@@ -19797,7 +19489,7 @@
       <c r="G334" s="65"/>
       <c r="K334" s="66"/>
       <c r="P334" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL334" s="102"/>
       <c r="AM334" s="102"/>
@@ -19837,7 +19529,7 @@
       <c r="G337" s="65"/>
       <c r="K337" s="66"/>
       <c r="P337" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL337" s="102"/>
       <c r="AM337" s="102"/>
@@ -19851,7 +19543,7 @@
       <c r="G338" s="65"/>
       <c r="K338" s="66"/>
       <c r="P338" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL338" s="102"/>
       <c r="AM338" s="102"/>
@@ -19873,7 +19565,7 @@
       <c r="G340" s="65"/>
       <c r="L340" s="65"/>
       <c r="N340" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AV340" s="66"/>
     </row>
@@ -19884,7 +19576,7 @@
       <c r="G341" s="65"/>
       <c r="K341" s="66"/>
       <c r="O341" s="102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P341" s="102"/>
       <c r="Q341" s="102"/>
@@ -19904,7 +19596,7 @@
       <c r="G342" s="65"/>
       <c r="K342" s="66"/>
       <c r="P342" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q342" s="102"/>
       <c r="R342" s="102"/>
@@ -19925,7 +19617,7 @@
       <c r="G343" s="65"/>
       <c r="K343" s="66"/>
       <c r="P343" s="102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q343" s="102"/>
       <c r="R343" s="102"/>
@@ -19946,7 +19638,7 @@
       <c r="G344" s="65"/>
       <c r="K344" s="66"/>
       <c r="P344" s="102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q344" s="102"/>
       <c r="R344" s="102"/>
@@ -19966,7 +19658,7 @@
       <c r="G345" s="65"/>
       <c r="K345" s="66"/>
       <c r="P345" s="102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q345" s="102"/>
       <c r="R345" s="102"/>
@@ -19986,7 +19678,7 @@
       <c r="G346" s="65"/>
       <c r="K346" s="66"/>
       <c r="P346" s="102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q346" s="102"/>
       <c r="R346" s="102"/>
@@ -20025,7 +19717,7 @@
       <c r="G348" s="65"/>
       <c r="K348" s="66"/>
       <c r="O348" s="102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P348" s="102"/>
       <c r="Q348" s="102"/>
@@ -20045,7 +19737,7 @@
       <c r="G349" s="65"/>
       <c r="K349" s="66"/>
       <c r="P349" s="102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q349" s="102"/>
       <c r="R349" s="102"/>
@@ -20065,7 +19757,7 @@
       <c r="G350" s="65"/>
       <c r="K350" s="66"/>
       <c r="P350" s="102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q350" s="102"/>
       <c r="R350" s="102"/>
@@ -20087,7 +19779,7 @@
       <c r="K351" s="66"/>
       <c r="P351" s="102"/>
       <c r="Q351" s="102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R351" s="102"/>
       <c r="S351" s="102"/>
@@ -20101,7 +19793,7 @@
         <v>96</v>
       </c>
       <c r="AA351" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM351" s="102"/>
       <c r="AV351" s="66"/>
@@ -20114,7 +19806,7 @@
       <c r="K352" s="66"/>
       <c r="P352" s="102"/>
       <c r="Q352" s="102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R352" s="102"/>
       <c r="S352" s="102"/>
@@ -20128,7 +19820,7 @@
         <v>96</v>
       </c>
       <c r="AA352" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AV352" s="66"/>
     </row>
@@ -20139,7 +19831,7 @@
       <c r="G353" s="65"/>
       <c r="K353" s="66"/>
       <c r="P353" s="102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q353" s="102"/>
       <c r="R353" s="102"/>
@@ -20161,7 +19853,7 @@
       <c r="K354" s="66"/>
       <c r="P354" s="102"/>
       <c r="Q354" s="102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R354" s="102"/>
       <c r="S354" s="102"/>
@@ -20175,7 +19867,7 @@
         <v>96</v>
       </c>
       <c r="AA354" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM354" s="102"/>
       <c r="AV354" s="66"/>
@@ -20221,7 +19913,7 @@
       <c r="G356" s="65"/>
       <c r="K356" s="66"/>
       <c r="O356" s="102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P356" s="102"/>
       <c r="Q356" s="102"/>
@@ -20255,7 +19947,7 @@
       <c r="K357" s="66"/>
       <c r="N357" s="102"/>
       <c r="P357" s="102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q357" s="102"/>
       <c r="R357" s="102"/>
@@ -20269,7 +19961,7 @@
         <v>96</v>
       </c>
       <c r="AA357" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB357" s="102"/>
       <c r="AC357" s="102"/>
@@ -20288,7 +19980,7 @@
       <c r="K358" s="66"/>
       <c r="N358" s="102"/>
       <c r="P358" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q358" s="102"/>
       <c r="R358" s="102"/>
@@ -20301,8 +19993,8 @@
       <c r="Z358" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="AA358" s="131" t="s">
-        <v>287</v>
+      <c r="AA358" s="130" t="s">
+        <v>281</v>
       </c>
       <c r="AB358" s="102"/>
       <c r="AC358" s="102"/>
@@ -20321,7 +20013,7 @@
       <c r="K359" s="66"/>
       <c r="N359" s="102"/>
       <c r="P359" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q359" s="102"/>
       <c r="R359" s="102"/>
@@ -20335,7 +20027,7 @@
         <v>96</v>
       </c>
       <c r="AA359" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB359" s="102"/>
       <c r="AC359" s="102"/>
@@ -20354,7 +20046,7 @@
       <c r="K360" s="66"/>
       <c r="N360" s="102"/>
       <c r="P360" s="102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q360" s="102"/>
       <c r="R360" s="102"/>
@@ -20365,7 +20057,7 @@
       <c r="W360" s="102"/>
       <c r="X360" s="102"/>
       <c r="Z360" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA360" s="102"/>
       <c r="AB360" s="102"/>
@@ -20375,7 +20067,7 @@
       <c r="AK360" s="102"/>
       <c r="AL360" s="102"/>
       <c r="AO360" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV360" s="66"/>
     </row>
@@ -20401,7 +20093,7 @@
         <v>96</v>
       </c>
       <c r="AA361" s="102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB361" s="102"/>
       <c r="AC361" s="102"/>
@@ -20411,7 +20103,7 @@
       <c r="AJ361" s="102"/>
       <c r="AK361" s="104"/>
       <c r="AO361" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV361" s="66"/>
     </row>
@@ -20422,36 +20114,36 @@
       <c r="G362" s="65"/>
       <c r="K362" s="66"/>
       <c r="M362" s="102"/>
-      <c r="P362" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q362" s="133"/>
-      <c r="R362" s="133"/>
-      <c r="S362" s="133"/>
-      <c r="T362" s="133"/>
-      <c r="U362" s="133"/>
-      <c r="V362" s="133"/>
-      <c r="W362" s="133"/>
-      <c r="X362" s="133"/>
-      <c r="Y362" s="133"/>
-      <c r="Z362" s="133" t="s">
+      <c r="P362" s="132" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q362" s="132"/>
+      <c r="R362" s="132"/>
+      <c r="S362" s="132"/>
+      <c r="T362" s="132"/>
+      <c r="U362" s="132"/>
+      <c r="V362" s="132"/>
+      <c r="W362" s="132"/>
+      <c r="X362" s="132"/>
+      <c r="Y362" s="132"/>
+      <c r="Z362" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA362" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB362" s="134"/>
-      <c r="AC362" s="133"/>
-      <c r="AD362" s="133"/>
-      <c r="AE362" s="134"/>
-      <c r="AF362" s="134"/>
-      <c r="AG362" s="134"/>
+      <c r="AA362" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB362" s="133"/>
+      <c r="AC362" s="132"/>
+      <c r="AD362" s="132"/>
+      <c r="AE362" s="133"/>
+      <c r="AF362" s="133"/>
+      <c r="AG362" s="133"/>
       <c r="AH362" s="102"/>
       <c r="AI362" s="102"/>
       <c r="AJ362" s="102"/>
       <c r="AK362" s="104"/>
       <c r="AO362" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV362" s="66"/>
     </row>
@@ -20462,36 +20154,36 @@
       <c r="G363" s="65"/>
       <c r="K363" s="66"/>
       <c r="M363" s="102"/>
-      <c r="P363" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q363" s="133"/>
-      <c r="R363" s="133"/>
-      <c r="S363" s="133"/>
-      <c r="T363" s="133"/>
-      <c r="U363" s="133"/>
-      <c r="V363" s="133"/>
-      <c r="W363" s="133"/>
-      <c r="X363" s="133"/>
-      <c r="Y363" s="133"/>
-      <c r="Z363" s="133" t="s">
+      <c r="P363" s="132" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q363" s="132"/>
+      <c r="R363" s="132"/>
+      <c r="S363" s="132"/>
+      <c r="T363" s="132"/>
+      <c r="U363" s="132"/>
+      <c r="V363" s="132"/>
+      <c r="W363" s="132"/>
+      <c r="X363" s="132"/>
+      <c r="Y363" s="132"/>
+      <c r="Z363" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA363" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB363" s="134"/>
-      <c r="AC363" s="133"/>
-      <c r="AD363" s="133"/>
-      <c r="AE363" s="134"/>
-      <c r="AF363" s="134"/>
-      <c r="AG363" s="134"/>
+      <c r="AA363" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB363" s="133"/>
+      <c r="AC363" s="132"/>
+      <c r="AD363" s="132"/>
+      <c r="AE363" s="133"/>
+      <c r="AF363" s="133"/>
+      <c r="AG363" s="133"/>
       <c r="AH363" s="102"/>
       <c r="AI363" s="102"/>
       <c r="AJ363" s="102"/>
       <c r="AK363" s="104"/>
       <c r="AO363" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV363" s="66"/>
     </row>
@@ -20502,36 +20194,36 @@
       <c r="G364" s="65"/>
       <c r="K364" s="66"/>
       <c r="M364" s="102"/>
-      <c r="P364" s="133" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q364" s="133"/>
-      <c r="R364" s="133"/>
-      <c r="S364" s="133"/>
-      <c r="T364" s="133"/>
-      <c r="U364" s="133"/>
-      <c r="V364" s="133"/>
-      <c r="W364" s="133"/>
-      <c r="X364" s="133"/>
-      <c r="Y364" s="133"/>
-      <c r="Z364" s="133" t="s">
+      <c r="P364" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q364" s="132"/>
+      <c r="R364" s="132"/>
+      <c r="S364" s="132"/>
+      <c r="T364" s="132"/>
+      <c r="U364" s="132"/>
+      <c r="V364" s="132"/>
+      <c r="W364" s="132"/>
+      <c r="X364" s="132"/>
+      <c r="Y364" s="132"/>
+      <c r="Z364" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA364" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB364" s="134"/>
-      <c r="AC364" s="133"/>
-      <c r="AD364" s="133"/>
-      <c r="AE364" s="134"/>
-      <c r="AF364" s="134"/>
-      <c r="AG364" s="134"/>
+      <c r="AA364" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB364" s="133"/>
+      <c r="AC364" s="132"/>
+      <c r="AD364" s="132"/>
+      <c r="AE364" s="133"/>
+      <c r="AF364" s="133"/>
+      <c r="AG364" s="133"/>
       <c r="AH364" s="102"/>
       <c r="AI364" s="102"/>
       <c r="AJ364" s="102"/>
       <c r="AK364" s="104"/>
       <c r="AO364" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV364" s="66"/>
     </row>
@@ -20542,36 +20234,36 @@
       <c r="G365" s="65"/>
       <c r="K365" s="66"/>
       <c r="M365" s="102"/>
-      <c r="P365" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q365" s="133"/>
-      <c r="R365" s="133"/>
-      <c r="S365" s="133"/>
-      <c r="T365" s="133"/>
-      <c r="U365" s="133"/>
-      <c r="V365" s="133"/>
-      <c r="W365" s="133"/>
-      <c r="X365" s="133"/>
-      <c r="Y365" s="133"/>
-      <c r="Z365" s="133" t="s">
+      <c r="P365" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q365" s="132"/>
+      <c r="R365" s="132"/>
+      <c r="S365" s="132"/>
+      <c r="T365" s="132"/>
+      <c r="U365" s="132"/>
+      <c r="V365" s="132"/>
+      <c r="W365" s="132"/>
+      <c r="X365" s="132"/>
+      <c r="Y365" s="132"/>
+      <c r="Z365" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA365" s="133" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB365" s="134"/>
-      <c r="AC365" s="133"/>
-      <c r="AD365" s="133"/>
-      <c r="AE365" s="134"/>
-      <c r="AF365" s="134"/>
-      <c r="AG365" s="134"/>
+      <c r="AA365" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB365" s="133"/>
+      <c r="AC365" s="132"/>
+      <c r="AD365" s="132"/>
+      <c r="AE365" s="133"/>
+      <c r="AF365" s="133"/>
+      <c r="AG365" s="133"/>
       <c r="AH365" s="102"/>
       <c r="AI365" s="102"/>
       <c r="AJ365" s="102"/>
       <c r="AK365" s="104"/>
       <c r="AO365" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV365" s="66"/>
     </row>
@@ -20582,36 +20274,36 @@
       <c r="G366" s="65"/>
       <c r="K366" s="66"/>
       <c r="M366" s="102"/>
-      <c r="P366" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q366" s="133"/>
-      <c r="R366" s="133"/>
-      <c r="S366" s="133"/>
-      <c r="T366" s="133"/>
-      <c r="U366" s="133"/>
-      <c r="V366" s="133"/>
-      <c r="W366" s="133"/>
-      <c r="X366" s="133"/>
-      <c r="Y366" s="133"/>
-      <c r="Z366" s="133" t="s">
+      <c r="P366" s="132" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q366" s="132"/>
+      <c r="R366" s="132"/>
+      <c r="S366" s="132"/>
+      <c r="T366" s="132"/>
+      <c r="U366" s="132"/>
+      <c r="V366" s="132"/>
+      <c r="W366" s="132"/>
+      <c r="X366" s="132"/>
+      <c r="Y366" s="132"/>
+      <c r="Z366" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AA366" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB366" s="134"/>
-      <c r="AC366" s="133"/>
-      <c r="AD366" s="133"/>
-      <c r="AE366" s="134"/>
-      <c r="AF366" s="134"/>
-      <c r="AG366" s="134"/>
+      <c r="AA366" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB366" s="133"/>
+      <c r="AC366" s="132"/>
+      <c r="AD366" s="132"/>
+      <c r="AE366" s="133"/>
+      <c r="AF366" s="133"/>
+      <c r="AG366" s="133"/>
       <c r="AH366" s="102"/>
       <c r="AI366" s="102"/>
       <c r="AJ366" s="102"/>
       <c r="AK366" s="104"/>
       <c r="AO366" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV366" s="66"/>
     </row>
@@ -20634,7 +20326,7 @@
       <c r="G368" s="65"/>
       <c r="K368" s="66"/>
       <c r="O368" s="102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL368" s="102"/>
       <c r="AM368" s="102"/>
@@ -20648,7 +20340,7 @@
       <c r="G369" s="65"/>
       <c r="K369" s="66"/>
       <c r="P369" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL369" s="102"/>
       <c r="AM369" s="102"/>
@@ -20662,7 +20354,7 @@
       <c r="G370" s="65"/>
       <c r="K370" s="66"/>
       <c r="P370" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL370" s="102"/>
       <c r="AM370" s="102"/>
@@ -20676,7 +20368,7 @@
       <c r="G371" s="65"/>
       <c r="K371" s="66"/>
       <c r="P371" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL371" s="102"/>
       <c r="AM371" s="102"/>
@@ -20690,7 +20382,7 @@
       <c r="G372" s="65"/>
       <c r="K372" s="66"/>
       <c r="P372" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL372" s="102"/>
       <c r="AM372" s="102"/>
@@ -20730,7 +20422,7 @@
       <c r="G375" s="65"/>
       <c r="K375" s="66"/>
       <c r="P375" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL375" s="102"/>
       <c r="AM375" s="102"/>
@@ -20744,7 +20436,7 @@
       <c r="G376" s="65"/>
       <c r="K376" s="66"/>
       <c r="P376" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL376" s="102"/>
       <c r="AM376" s="102"/>
@@ -20807,7 +20499,7 @@
       <c r="G378" s="65"/>
       <c r="K378" s="66"/>
       <c r="L378" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AV378" s="66"/>
     </row>
@@ -20818,7 +20510,7 @@
       <c r="G379" s="65"/>
       <c r="K379" s="66"/>
       <c r="L379" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AV379" s="66"/>
     </row>
@@ -20829,7 +20521,7 @@
       <c r="G380" s="65"/>
       <c r="K380" s="66"/>
       <c r="M380" s="102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N380" s="102"/>
       <c r="O380" s="102"/>
@@ -20843,7 +20535,7 @@
       <c r="K381" s="66"/>
       <c r="M381" s="102"/>
       <c r="N381" s="102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O381" s="102"/>
       <c r="AV381" s="66"/>
@@ -20908,14 +20600,14 @@
       <c r="E383" s="20"/>
       <c r="F383" s="21"/>
       <c r="G383" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H383" s="20"/>
       <c r="I383" s="20"/>
       <c r="J383" s="20"/>
       <c r="K383" s="21"/>
       <c r="L383" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M383" s="20"/>
       <c r="N383" s="20"/>
@@ -20992,7 +20684,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -21519,7 +21211,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -21531,7 +21223,7 @@
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -21810,7 +21502,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -22140,8 +21832,8 @@
       <c r="AZ5" s="51"/>
     </row>
     <row r="6" spans="1:52" s="109" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
-        <v>306</v>
+      <c r="A6" s="135" t="s">
+        <v>295</v>
       </c>
       <c r="B6" s="108"/>
       <c r="C6" s="108"/>
@@ -22183,26 +21875,26 @@
     </row>
     <row r="8" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="109" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
+        <v>270</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="119"/>
       <c r="P8" s="109"/>
-      <c r="Q8" s="120"/>
+      <c r="Q8" s="119"/>
       <c r="R8" s="109"/>
       <c r="S8" s="109"/>
-      <c r="T8" s="120" t="s">
-        <v>269</v>
+      <c r="T8" s="119" t="s">
+        <v>263</v>
       </c>
       <c r="U8" s="109"/>
       <c r="W8" s="111"/>
@@ -22218,36 +21910,36 @@
       <c r="AH8" s="111"/>
     </row>
     <row r="9" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123" t="s">
-        <v>270</v>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122" t="s">
+        <v>264</v>
       </c>
       <c r="G9" s="204" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H9" s="205"/>
       <c r="I9" s="208" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J9" s="209"/>
       <c r="K9" s="210"/>
       <c r="L9" s="204" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M9" s="205"/>
       <c r="N9" s="208" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O9" s="209"/>
       <c r="P9" s="210"/>
       <c r="Q9" s="204" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R9" s="205"/>
       <c r="S9" s="204" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="T9" s="205"/>
       <c r="U9" s="111"/>
@@ -22264,12 +21956,12 @@
       <c r="AF9" s="111"/>
     </row>
     <row r="10" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="124" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
+      <c r="C10" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="206"/>
       <c r="H10" s="207"/>
       <c r="I10" s="211"/>
@@ -22298,38 +21990,38 @@
       <c r="AF10" s="111"/>
     </row>
     <row r="11" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="T11" s="130"/>
+      <c r="C11" s="126" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="T11" s="129"/>
       <c r="U11" s="111"/>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
@@ -22344,38 +22036,38 @@
       <c r="AF11" s="111"/>
     </row>
     <row r="12" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="127" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130" t="s">
+      <c r="C12" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="T12" s="130"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="T12" s="129"/>
       <c r="U12" s="111"/>
       <c r="V12" s="111"/>
       <c r="W12" s="111"/>
@@ -22390,38 +22082,38 @@
       <c r="AF12" s="111"/>
     </row>
     <row r="13" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="T13" s="130"/>
+      <c r="C13" s="126" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="T13" s="129"/>
       <c r="U13" s="111"/>
       <c r="V13" s="111"/>
       <c r="W13" s="111"/>
@@ -22436,38 +22128,38 @@
       <c r="AF13" s="111"/>
     </row>
     <row r="14" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="127" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="T14" s="130"/>
+      <c r="C14" s="126" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="T14" s="129"/>
       <c r="U14" s="111"/>
       <c r="V14" s="111"/>
       <c r="W14" s="111"/>
@@ -22483,7 +22175,7 @@
     </row>
     <row r="15" spans="1:52" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="111"/>
       <c r="E15" s="111"/>
@@ -22587,7 +22279,7 @@
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
